--- a/teaching/traditional_assets/database/data/singapore/singapore_computers_peripherals.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_computers_peripherals.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="sgx_b69" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,34 +593,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.149</v>
+        <v>-0.109</v>
       </c>
       <c r="G2">
-        <v>0.001961591220850485</v>
+        <v>-0.01195358877495952</v>
       </c>
       <c r="H2">
-        <v>-0.04698216735253772</v>
+        <v>-0.0518348623853211</v>
       </c>
       <c r="I2">
-        <v>-0.1000054585987776</v>
+        <v>-0.05275229357798166</v>
       </c>
       <c r="J2">
-        <v>-0.1000054585987776</v>
+        <v>-0.05176521078403783</v>
       </c>
       <c r="K2">
-        <v>-12.46</v>
+        <v>-22.32</v>
       </c>
       <c r="L2">
-        <v>-0.04272976680384088</v>
+        <v>-0.06022665947112791</v>
       </c>
       <c r="M2">
-        <v>0.366</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.001601750547045952</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.02937399678972712</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +632,76 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.366</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>111.31</v>
+        <v>124.71</v>
       </c>
       <c r="V2">
-        <v>0.4871334792122539</v>
+        <v>0.5860432330827067</v>
       </c>
       <c r="W2">
-        <v>-0.05034168564920274</v>
+        <v>-0.07327394209354121</v>
       </c>
       <c r="X2">
-        <v>0.09364372107165654</v>
+        <v>0.06966784041453182</v>
       </c>
       <c r="Y2">
-        <v>-0.1439854067208593</v>
+        <v>-0.142941782508073</v>
       </c>
       <c r="Z2">
-        <v>2.300084361153738</v>
+        <v>3.186860435119098</v>
       </c>
       <c r="AA2">
-        <v>-0.07200250283311026</v>
+        <v>-0.09981851179673322</v>
       </c>
       <c r="AB2">
-        <v>0.09217613249395978</v>
+        <v>0.06767939742214482</v>
       </c>
       <c r="AC2">
-        <v>-0.1613706842386588</v>
+        <v>-0.167440109385255</v>
       </c>
       <c r="AD2">
-        <v>31.66</v>
+        <v>23.683</v>
       </c>
       <c r="AE2">
-        <v>7.707958637017734</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>39.36795863701774</v>
+        <v>23.683</v>
       </c>
       <c r="AG2">
-        <v>-71.94204136298227</v>
+        <v>-101.027</v>
       </c>
       <c r="AH2">
-        <v>0.1469677778459664</v>
+        <v>0.1001467335918438</v>
       </c>
       <c r="AI2">
-        <v>0.1623635504596829</v>
+        <v>0.1133792601599939</v>
       </c>
       <c r="AJ2">
-        <v>-0.4595233738949107</v>
+        <v>-0.9038587136428293</v>
       </c>
       <c r="AK2">
-        <v>-0.5485144943593039</v>
+        <v>-1.200230477706628</v>
       </c>
       <c r="AL2">
-        <v>0.6829999999999999</v>
+        <v>0.857</v>
       </c>
       <c r="AM2">
-        <v>-2.077</v>
+        <v>-1.22</v>
       </c>
       <c r="AN2">
-        <v>-1.860164512338425</v>
+        <v>-2.571444082519002</v>
       </c>
       <c r="AO2">
-        <v>-45.38799414348463</v>
+        <v>-22.81213535589265</v>
       </c>
       <c r="AP2">
-        <v>4.226911948471344</v>
+        <v>10.96927252985885</v>
       </c>
       <c r="AQ2">
-        <v>14.92537313432836</v>
+        <v>16.02459016393443</v>
       </c>
     </row>
     <row r="3">
@@ -722,34 +721,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.149</v>
+        <v>-0.109</v>
       </c>
       <c r="G3">
-        <v>0.06209751609935602</v>
+        <v>0.01033013844515442</v>
       </c>
       <c r="H3">
-        <v>0.06209751609935602</v>
+        <v>0.01033013844515442</v>
       </c>
       <c r="I3">
-        <v>-0.01652043351014939</v>
+        <v>0.01402200922967696</v>
       </c>
       <c r="J3">
-        <v>-0.01652043351014939</v>
+        <v>0.01323488417169203</v>
       </c>
       <c r="K3">
-        <v>-6.86</v>
+        <v>-1.43</v>
       </c>
       <c r="L3">
-        <v>-0.03155473781048758</v>
+        <v>-0.005076322328718495</v>
       </c>
       <c r="M3">
-        <v>0.122</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.002634989200863931</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.01778425655976676</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -761,79 +760,76 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.122</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>9.19</v>
+        <v>23.2</v>
       </c>
       <c r="V3">
-        <v>0.198488120950324</v>
+        <v>0.3899159663865546</v>
       </c>
       <c r="W3">
-        <v>-0.1076923076923077</v>
+        <v>-0.02638376383763837</v>
       </c>
       <c r="X3">
-        <v>0.1233342420721545</v>
+        <v>0.08222434648443801</v>
       </c>
       <c r="Y3">
-        <v>-0.2310265497644622</v>
+        <v>-0.1086081103220764</v>
       </c>
       <c r="Z3">
-        <v>2.673793133802193</v>
+        <v>4.006542454842839</v>
       </c>
       <c r="AA3">
-        <v>-0.0441722216868731</v>
+        <v>0.05302612531881161</v>
       </c>
       <c r="AB3">
-        <v>0.09217613249395978</v>
+        <v>0.06810065310740723</v>
       </c>
       <c r="AC3">
-        <v>-0.1363483541808329</v>
+        <v>-0.01507452778859562</v>
       </c>
       <c r="AD3">
-        <v>25.3</v>
+        <v>18</v>
       </c>
       <c r="AE3">
-        <v>1.707711225532384</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>27.00771122553239</v>
+        <v>18</v>
       </c>
       <c r="AG3">
-        <v>17.81771122553238</v>
+        <v>-5.199999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.3684156928926988</v>
+        <v>0.232258064516129</v>
       </c>
       <c r="AI3">
-        <v>0.337986294580576</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="AJ3">
-        <v>0.2778906309187963</v>
+        <v>-0.09576427255985266</v>
       </c>
       <c r="AK3">
-        <v>0.2519554283750541</v>
+        <v>-0.1087866108786611</v>
       </c>
       <c r="AL3">
-        <v>0.607</v>
+        <v>0.55</v>
       </c>
       <c r="AM3">
-        <v>0.5609999999999999</v>
+        <v>0.535</v>
       </c>
       <c r="AN3">
-        <v>3.759286775631501</v>
+        <v>1.294964028776978</v>
       </c>
       <c r="AO3">
-        <v>-7.298187808896211</v>
+        <v>7.181818181818182</v>
       </c>
       <c r="AP3">
-        <v>2.647505382694262</v>
+        <v>-0.3741007194244604</v>
       </c>
       <c r="AQ3">
-        <v>-7.896613190730838</v>
+        <v>7.383177570093458</v>
       </c>
     </row>
     <row r="4">
@@ -853,34 +849,34 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.288</v>
+        <v>-0.283</v>
       </c>
       <c r="G4">
-        <v>-0.1096216216216216</v>
+        <v>-0.0628158844765343</v>
       </c>
       <c r="H4">
-        <v>-0.1621621621621622</v>
+        <v>-0.116245487364621</v>
       </c>
       <c r="I4">
-        <v>-0.1612790298289653</v>
+        <v>-0.1588447653429603</v>
       </c>
       <c r="J4">
-        <v>-0.1612790298289653</v>
+        <v>-0.1588447653429603</v>
       </c>
       <c r="K4">
-        <v>-2.21</v>
+        <v>-3.29</v>
       </c>
       <c r="L4">
-        <v>-0.1194594594594595</v>
+        <v>-0.1187725631768953</v>
       </c>
       <c r="M4">
-        <v>0.244</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.01496932515337423</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0.1104072398190045</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -892,76 +888,76 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.244</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.82</v>
+        <v>4.71</v>
       </c>
       <c r="V4">
-        <v>0.05030674846625766</v>
+        <v>0.1930327868852459</v>
       </c>
       <c r="W4">
-        <v>-0.05034168564920274</v>
+        <v>-0.07327394209354121</v>
       </c>
       <c r="X4">
-        <v>0.08996530264482676</v>
+        <v>0.0678720714514381</v>
       </c>
       <c r="Y4">
-        <v>-0.1403069882940295</v>
+        <v>-0.1411460135449793</v>
       </c>
       <c r="Z4">
-        <v>0.4464467755632467</v>
+        <v>0.6284029038112523</v>
       </c>
       <c r="AA4">
-        <v>-0.07200250283311026</v>
+        <v>-0.09981851179673322</v>
       </c>
       <c r="AB4">
-        <v>0.08936818140554853</v>
+        <v>0.06762159758852176</v>
       </c>
       <c r="AC4">
-        <v>-0.1613706842386588</v>
+        <v>-0.167440109385255</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="AE4">
-        <v>0.1683102591792937</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.1683102591792937</v>
+        <v>0.143</v>
       </c>
       <c r="AG4">
-        <v>-0.6516897408207062</v>
+        <v>-4.567</v>
       </c>
       <c r="AH4">
-        <v>0.0102202506833073</v>
+        <v>0.005826508576783604</v>
       </c>
       <c r="AI4">
-        <v>0.003661441071693174</v>
+        <v>0.003580101644843902</v>
       </c>
       <c r="AJ4">
-        <v>-0.04164601353289408</v>
+        <v>-0.2302727776937428</v>
       </c>
       <c r="AK4">
-        <v>-0.01443442151167127</v>
+        <v>-0.129622796809809</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="AM4">
-        <v>-0.954</v>
+        <v>-0.823</v>
       </c>
       <c r="AN4">
-        <v>-0</v>
+        <v>-0.0339667458432304</v>
+      </c>
+      <c r="AO4">
+        <v>-231.5789473684211</v>
       </c>
       <c r="AP4">
-        <v>0.2575848777947455</v>
+        <v>1.08479809976247</v>
       </c>
       <c r="AQ4">
-        <v>3.218029350104822</v>
+        <v>5.34629404617254</v>
       </c>
     </row>
     <row r="5">
@@ -981,25 +977,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.128</v>
+        <v>-0.09269999999999999</v>
       </c>
       <c r="G5">
-        <v>-0.1956912028725314</v>
+        <v>-0.09150326797385618</v>
       </c>
       <c r="H5">
-        <v>-0.4344703770197486</v>
+        <v>-0.3088235294117647</v>
       </c>
       <c r="I5">
-        <v>-0.405500672001099</v>
+        <v>-0.3120915032679739</v>
       </c>
       <c r="J5">
-        <v>-0.405500672001099</v>
+        <v>-0.3120915032679739</v>
       </c>
       <c r="K5">
-        <v>-3.39</v>
+        <v>-17.6</v>
       </c>
       <c r="L5">
-        <v>-0.06086175942549372</v>
+        <v>-0.2875816993464053</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1023,73 +1019,8791 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>101.3</v>
+        <v>96.8</v>
       </c>
       <c r="V5">
-        <v>0.6106088004822182</v>
+        <v>0.7509697439875872</v>
       </c>
       <c r="W5">
-        <v>-0.03201133144475921</v>
+        <v>-0.1604375569735643</v>
       </c>
       <c r="X5">
-        <v>0.09364372107165654</v>
+        <v>0.06966784041453182</v>
       </c>
       <c r="Y5">
-        <v>-0.1256550525164157</v>
+        <v>-0.2301053973880961</v>
       </c>
       <c r="Z5">
-        <v>13.81469945982231</v>
+        <v>32.21052631578938</v>
       </c>
       <c r="AA5">
-        <v>-5.601869914451163</v>
+        <v>-10.05263157894734</v>
       </c>
       <c r="AB5">
-        <v>0.09329576474719171</v>
+        <v>0.06767939742214482</v>
       </c>
       <c r="AC5">
-        <v>-5.695165679198356</v>
+        <v>-10.12031097636948</v>
       </c>
       <c r="AD5">
-        <v>6.36</v>
+        <v>5.54</v>
       </c>
       <c r="AE5">
-        <v>5.831937152306057</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>12.19193715230606</v>
+        <v>5.54</v>
       </c>
       <c r="AG5">
-        <v>-89.10806284769394</v>
+        <v>-91.25999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.06845866998391616</v>
+        <v>0.04120797381731628</v>
       </c>
       <c r="AI5">
-        <v>0.1045692991306896</v>
+        <v>0.05656524402695527</v>
       </c>
       <c r="AJ5">
-        <v>-1.160383057806714</v>
+        <v>-2.424548352816152</v>
       </c>
       <c r="AK5">
-        <v>-5.827127195213213</v>
+        <v>-80.05263157894632</v>
       </c>
       <c r="AL5">
-        <v>0.076</v>
+        <v>0.288</v>
       </c>
       <c r="AM5">
-        <v>-1.684</v>
+        <v>-0.9319999999999999</v>
       </c>
       <c r="AN5">
-        <v>-0.2997172478793591</v>
+        <v>-0.2931216931216932</v>
       </c>
       <c r="AO5">
-        <v>-309.2105263157895</v>
+        <v>-66.31944444444446</v>
       </c>
       <c r="AP5">
-        <v>4.199248956064748</v>
+        <v>4.828571428571428</v>
       </c>
       <c r="AQ5">
-        <v>13.95486935866983</v>
+        <v>20.49356223175966</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Broadway Industrial Group Limited (SGX:B69)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SGX:B69</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Computers/Peripherals</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.232258064516129</v>
+      </c>
+      <c r="F2">
+        <v>0.22</v>
+      </c>
+      <c r="G2">
+        <v>59.5</v>
+      </c>
+      <c r="H2">
+        <v>62.145058641236</v>
+      </c>
+      <c r="I2">
+        <v>54.3</v>
+      </c>
+      <c r="J2">
+        <v>55.995058641236</v>
+      </c>
+      <c r="K2">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>17.05</v>
+      </c>
+      <c r="M2">
+        <v>0.06810065310740721</v>
+      </c>
+      <c r="N2">
+        <v>0.066320664701669</v>
+      </c>
+      <c r="O2">
+        <v>0.021414</v>
+      </c>
+      <c r="P2">
+        <v>0.013446</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.08222434648443799</v>
+      </c>
+      <c r="T2">
+        <v>0.0812340316688064</v>
+      </c>
+      <c r="U2">
+        <v>1.54500734077199</v>
+      </c>
+      <c r="V2">
+        <v>1.5240260946781</v>
+      </c>
+      <c r="W2">
+        <v>14.30071322544441</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>59.5</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.0258</v>
+      </c>
+      <c r="AD2">
+        <v>0.17</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>13.9</v>
+      </c>
+      <c r="AH2">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>12.9</v>
+      </c>
+      <c r="AJ2">
+        <v>18</v>
+      </c>
+      <c r="AK2">
+        <v>18</v>
+      </c>
+      <c r="AL2">
+        <v>0.55</v>
+      </c>
+      <c r="AM2">
+        <v>18</v>
+      </c>
+      <c r="AN2">
+        <v>23.2</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06758853594605134</v>
+      </c>
+      <c r="C2">
+        <v>77.97707428931415</v>
+      </c>
+      <c r="D2">
+        <v>54.77707428931415</v>
+      </c>
+      <c r="E2">
+        <v>-18</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>23.2</v>
+      </c>
+      <c r="H2">
+        <v>59.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>13.9</v>
+      </c>
+      <c r="K2">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L2">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.6715000000000002</v>
+      </c>
+      <c r="P2">
+        <v>3.278500000000001</v>
+      </c>
+      <c r="Q2">
+        <v>13.2285</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06758853594605134</v>
+      </c>
+      <c r="T2">
+        <v>1.234926609026511</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.17</v>
+      </c>
+      <c r="W2">
+        <v>0.013446</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06753090543494304</v>
+      </c>
+      <c r="C3">
+        <v>77.25628658027426</v>
+      </c>
+      <c r="D3">
+        <v>54.83128658027427</v>
+      </c>
+      <c r="E3">
+        <v>-17.225</v>
+      </c>
+      <c r="F3">
+        <v>0.775</v>
+      </c>
+      <c r="G3">
+        <v>23.2</v>
+      </c>
+      <c r="H3">
+        <v>59.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>13.9</v>
+      </c>
+      <c r="K3">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L3">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.012555</v>
+      </c>
+      <c r="N3">
+        <v>3.937445000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.6693656500000003</v>
+      </c>
+      <c r="P3">
+        <v>3.268079350000001</v>
+      </c>
+      <c r="Q3">
+        <v>13.21807935</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06807721761105358</v>
+      </c>
+      <c r="T3">
+        <v>1.245280034132491</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.17</v>
+      </c>
+      <c r="W3">
+        <v>0.013446</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>314.6156909597771</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06747327492383477</v>
+      </c>
+      <c r="C4">
+        <v>76.53560628420159</v>
+      </c>
+      <c r="D4">
+        <v>54.88560628420159</v>
+      </c>
+      <c r="E4">
+        <v>-16.45</v>
+      </c>
+      <c r="F4">
+        <v>1.55</v>
+      </c>
+      <c r="G4">
+        <v>23.2</v>
+      </c>
+      <c r="H4">
+        <v>59.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>13.9</v>
+      </c>
+      <c r="K4">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L4">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.02511</v>
+      </c>
+      <c r="N4">
+        <v>3.924890000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.6672313000000002</v>
+      </c>
+      <c r="P4">
+        <v>3.257658700000001</v>
+      </c>
+      <c r="Q4">
+        <v>13.2076587</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06857587237125996</v>
+      </c>
+      <c r="T4">
+        <v>1.255844753628389</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.17</v>
+      </c>
+      <c r="W4">
+        <v>0.013446</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>157.3078454798885</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06741564441272646</v>
+      </c>
+      <c r="C5">
+        <v>75.8150337206451</v>
+      </c>
+      <c r="D5">
+        <v>54.94003372064511</v>
+      </c>
+      <c r="E5">
+        <v>-15.675</v>
+      </c>
+      <c r="F5">
+        <v>2.325</v>
+      </c>
+      <c r="G5">
+        <v>23.2</v>
+      </c>
+      <c r="H5">
+        <v>59.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>13.9</v>
+      </c>
+      <c r="K5">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L5">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.037665</v>
+      </c>
+      <c r="N5">
+        <v>3.912335000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.6650969500000002</v>
+      </c>
+      <c r="P5">
+        <v>3.247238050000001</v>
+      </c>
+      <c r="Q5">
+        <v>13.19723805</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06908480867291389</v>
+      </c>
+      <c r="T5">
+        <v>1.266627302392243</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.17</v>
+      </c>
+      <c r="W5">
+        <v>0.013446</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>104.8718969865924</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06735801390161818</v>
+      </c>
+      <c r="C6">
+        <v>75.09456921042251</v>
+      </c>
+      <c r="D6">
+        <v>54.9945692104225</v>
+      </c>
+      <c r="E6">
+        <v>-14.9</v>
+      </c>
+      <c r="F6">
+        <v>3.1</v>
+      </c>
+      <c r="G6">
+        <v>23.2</v>
+      </c>
+      <c r="H6">
+        <v>59.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>13.9</v>
+      </c>
+      <c r="K6">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L6">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.05022</v>
+      </c>
+      <c r="N6">
+        <v>3.899780000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.6629626000000003</v>
+      </c>
+      <c r="P6">
+        <v>3.236817400000001</v>
+      </c>
+      <c r="Q6">
+        <v>13.1868174</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.0696043478141856</v>
+      </c>
+      <c r="T6">
+        <v>1.277634487588678</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.17</v>
+      </c>
+      <c r="W6">
+        <v>0.013446</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>78.65392273994426</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06730038339050991</v>
+      </c>
+      <c r="C7">
+        <v>74.37421307562657</v>
+      </c>
+      <c r="D7">
+        <v>55.04921307562658</v>
+      </c>
+      <c r="E7">
+        <v>-14.125</v>
+      </c>
+      <c r="F7">
+        <v>3.875</v>
+      </c>
+      <c r="G7">
+        <v>23.2</v>
+      </c>
+      <c r="H7">
+        <v>59.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>13.9</v>
+      </c>
+      <c r="K7">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L7">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.062775</v>
+      </c>
+      <c r="N7">
+        <v>3.887225000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.6608282500000002</v>
+      </c>
+      <c r="P7">
+        <v>3.226396750000001</v>
+      </c>
+      <c r="Q7">
+        <v>13.17639675</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.07013482462158938</v>
+      </c>
+      <c r="T7">
+        <v>1.288873402999775</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.17</v>
+      </c>
+      <c r="W7">
+        <v>0.013446</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>62.92313819195542</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06724275287940161</v>
+      </c>
+      <c r="C8">
+        <v>73.65396563963162</v>
+      </c>
+      <c r="D8">
+        <v>55.10396563963162</v>
+      </c>
+      <c r="E8">
+        <v>-13.35</v>
+      </c>
+      <c r="F8">
+        <v>4.649999999999999</v>
+      </c>
+      <c r="G8">
+        <v>23.2</v>
+      </c>
+      <c r="H8">
+        <v>59.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>13.9</v>
+      </c>
+      <c r="K8">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L8">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.07532999999999999</v>
+      </c>
+      <c r="N8">
+        <v>3.874670000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.6586939000000002</v>
+      </c>
+      <c r="P8">
+        <v>3.215976100000001</v>
+      </c>
+      <c r="Q8">
+        <v>13.1659761</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07067658816957618</v>
+      </c>
+      <c r="T8">
+        <v>1.300351444270682</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.17</v>
+      </c>
+      <c r="W8">
+        <v>0.013446</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>52.43594849329618</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06718512236829333</v>
+      </c>
+      <c r="C9">
+        <v>72.93382722709964</v>
+      </c>
+      <c r="D9">
+        <v>55.15882722709964</v>
+      </c>
+      <c r="E9">
+        <v>-12.575</v>
+      </c>
+      <c r="F9">
+        <v>5.425000000000001</v>
+      </c>
+      <c r="G9">
+        <v>23.2</v>
+      </c>
+      <c r="H9">
+        <v>59.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>13.9</v>
+      </c>
+      <c r="K9">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L9">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.087885</v>
+      </c>
+      <c r="N9">
+        <v>3.862115000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.6565595500000002</v>
+      </c>
+      <c r="P9">
+        <v>3.205555450000001</v>
+      </c>
+      <c r="Q9">
+        <v>13.15555545</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07123000254655196</v>
+      </c>
+      <c r="T9">
+        <v>1.312076325138813</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.17</v>
+      </c>
+      <c r="W9">
+        <v>0.013446</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>44.94509870853958</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06712749185718504</v>
+      </c>
+      <c r="C10">
+        <v>72.21379816398692</v>
+      </c>
+      <c r="D10">
+        <v>55.21379816398693</v>
+      </c>
+      <c r="E10">
+        <v>-11.8</v>
+      </c>
+      <c r="F10">
+        <v>6.2</v>
+      </c>
+      <c r="G10">
+        <v>23.2</v>
+      </c>
+      <c r="H10">
+        <v>59.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>13.9</v>
+      </c>
+      <c r="K10">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L10">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.10044</v>
+      </c>
+      <c r="N10">
+        <v>3.849560000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.6544252000000003</v>
+      </c>
+      <c r="P10">
+        <v>3.195134800000001</v>
+      </c>
+      <c r="Q10">
+        <v>13.1451348</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.0717954476708533</v>
+      </c>
+      <c r="T10">
+        <v>1.324056094721468</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.17</v>
+      </c>
+      <c r="W10">
+        <v>0.013446</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>39.32696136997213</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06706986134607676</v>
+      </c>
+      <c r="C11">
+        <v>71.49387877755044</v>
+      </c>
+      <c r="D11">
+        <v>55.26887877755043</v>
+      </c>
+      <c r="E11">
+        <v>-11.025</v>
+      </c>
+      <c r="F11">
+        <v>6.975</v>
+      </c>
+      <c r="G11">
+        <v>23.2</v>
+      </c>
+      <c r="H11">
+        <v>59.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>13.9</v>
+      </c>
+      <c r="K11">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L11">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.112995</v>
+      </c>
+      <c r="N11">
+        <v>3.837005000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.6522908500000002</v>
+      </c>
+      <c r="P11">
+        <v>3.18471415</v>
+      </c>
+      <c r="Q11">
+        <v>13.13471415</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0723733201605239</v>
+      </c>
+      <c r="T11">
+        <v>1.336299155943303</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.17</v>
+      </c>
+      <c r="W11">
+        <v>0.013446</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>34.95729899553079</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06701223083496848</v>
+      </c>
+      <c r="C12">
+        <v>70.77406939635428</v>
+      </c>
+      <c r="D12">
+        <v>55.32406939635428</v>
+      </c>
+      <c r="E12">
+        <v>-10.25</v>
+      </c>
+      <c r="F12">
+        <v>7.75</v>
+      </c>
+      <c r="G12">
+        <v>23.2</v>
+      </c>
+      <c r="H12">
+        <v>59.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>13.9</v>
+      </c>
+      <c r="K12">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L12">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.12555</v>
+      </c>
+      <c r="N12">
+        <v>3.824450000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.6501565000000002</v>
+      </c>
+      <c r="P12">
+        <v>3.174293500000001</v>
+      </c>
+      <c r="Q12">
+        <v>13.1242935</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07296403426107607</v>
+      </c>
+      <c r="T12">
+        <v>1.34881428519229</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.17</v>
+      </c>
+      <c r="W12">
+        <v>0.013446</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>31.46156909597771</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06695460032386019</v>
+      </c>
+      <c r="C13">
+        <v>70.05437035027629</v>
+      </c>
+      <c r="D13">
+        <v>55.37937035027629</v>
+      </c>
+      <c r="E13">
+        <v>-9.475</v>
+      </c>
+      <c r="F13">
+        <v>8.525</v>
+      </c>
+      <c r="G13">
+        <v>23.2</v>
+      </c>
+      <c r="H13">
+        <v>59.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>13.9</v>
+      </c>
+      <c r="K13">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L13">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.138105</v>
+      </c>
+      <c r="N13">
+        <v>3.811895000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.6480221500000002</v>
+      </c>
+      <c r="P13">
+        <v>3.163872850000001</v>
+      </c>
+      <c r="Q13">
+        <v>13.11387285</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07356802283579796</v>
+      </c>
+      <c r="T13">
+        <v>1.361610653300804</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.17</v>
+      </c>
+      <c r="W13">
+        <v>0.013446</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>28.60142645088882</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06689696981275189</v>
+      </c>
+      <c r="C14">
+        <v>69.33478197051461</v>
+      </c>
+      <c r="D14">
+        <v>55.43478197051461</v>
+      </c>
+      <c r="E14">
+        <v>-8.700000000000001</v>
+      </c>
+      <c r="F14">
+        <v>9.299999999999999</v>
+      </c>
+      <c r="G14">
+        <v>23.2</v>
+      </c>
+      <c r="H14">
+        <v>59.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>13.9</v>
+      </c>
+      <c r="K14">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L14">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.15066</v>
+      </c>
+      <c r="N14">
+        <v>3.799340000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.6458878000000002</v>
+      </c>
+      <c r="P14">
+        <v>3.153452200000001</v>
+      </c>
+      <c r="Q14">
+        <v>13.1034522</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.0741857384235817</v>
+      </c>
+      <c r="T14">
+        <v>1.374697847957239</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.17</v>
+      </c>
+      <c r="W14">
+        <v>0.013446</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>26.21797424664809</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.0668393393016436</v>
+      </c>
+      <c r="C15">
+        <v>68.6153045895942</v>
+      </c>
+      <c r="D15">
+        <v>55.49030458959421</v>
+      </c>
+      <c r="E15">
+        <v>-7.924999999999999</v>
+      </c>
+      <c r="F15">
+        <v>10.075</v>
+      </c>
+      <c r="G15">
+        <v>23.2</v>
+      </c>
+      <c r="H15">
+        <v>59.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>13.9</v>
+      </c>
+      <c r="K15">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L15">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.163215</v>
+      </c>
+      <c r="N15">
+        <v>3.786785000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.6437534500000002</v>
+      </c>
+      <c r="P15">
+        <v>3.143031550000001</v>
+      </c>
+      <c r="Q15">
+        <v>13.09303155</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07481765436970529</v>
+      </c>
+      <c r="T15">
+        <v>1.388085897663248</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.17</v>
+      </c>
+      <c r="W15">
+        <v>0.013446</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>24.20120699690593</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.06678170879053531</v>
+      </c>
+      <c r="C16">
+        <v>67.89593854137365</v>
+      </c>
+      <c r="D16">
+        <v>55.54593854137367</v>
+      </c>
+      <c r="E16">
+        <v>-7.149999999999999</v>
+      </c>
+      <c r="F16">
+        <v>10.85</v>
+      </c>
+      <c r="G16">
+        <v>23.2</v>
+      </c>
+      <c r="H16">
+        <v>59.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>13.9</v>
+      </c>
+      <c r="K16">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L16">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.17577</v>
+      </c>
+      <c r="N16">
+        <v>3.774230000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.6416191000000002</v>
+      </c>
+      <c r="P16">
+        <v>3.132610900000001</v>
+      </c>
+      <c r="Q16">
+        <v>13.0826109</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07546426603550618</v>
+      </c>
+      <c r="T16">
+        <v>1.401785297362419</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.17</v>
+      </c>
+      <c r="W16">
+        <v>0.013446</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>22.47254935426979</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.06672407827942703</v>
+      </c>
+      <c r="C17">
+        <v>67.17668416105172</v>
+      </c>
+      <c r="D17">
+        <v>55.60168416105173</v>
+      </c>
+      <c r="E17">
+        <v>-6.375</v>
+      </c>
+      <c r="F17">
+        <v>11.625</v>
+      </c>
+      <c r="G17">
+        <v>23.2</v>
+      </c>
+      <c r="H17">
+        <v>59.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>13.9</v>
+      </c>
+      <c r="K17">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L17">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.188325</v>
+      </c>
+      <c r="N17">
+        <v>3.761675000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.6394847500000003</v>
+      </c>
+      <c r="P17">
+        <v>3.122190250000001</v>
+      </c>
+      <c r="Q17">
+        <v>13.07219025</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07612609209344356</v>
+      </c>
+      <c r="T17">
+        <v>1.415807035878042</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.17</v>
+      </c>
+      <c r="W17">
+        <v>0.013446</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>20.97437939731847</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.06666644776831875</v>
+      </c>
+      <c r="C18">
+        <v>66.45754178517417</v>
+      </c>
+      <c r="D18">
+        <v>55.65754178517417</v>
+      </c>
+      <c r="E18">
+        <v>-5.6</v>
+      </c>
+      <c r="F18">
+        <v>12.4</v>
+      </c>
+      <c r="G18">
+        <v>23.2</v>
+      </c>
+      <c r="H18">
+        <v>59.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>13.9</v>
+      </c>
+      <c r="K18">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L18">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.20088</v>
+      </c>
+      <c r="N18">
+        <v>3.749120000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.6373504000000002</v>
+      </c>
+      <c r="P18">
+        <v>3.111769600000001</v>
+      </c>
+      <c r="Q18">
+        <v>13.0617696</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07680367591466516</v>
+      </c>
+      <c r="T18">
+        <v>1.430162625310703</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.17</v>
+      </c>
+      <c r="W18">
+        <v>0.013446</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>19.66348068498607</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.06660881725721045</v>
+      </c>
+      <c r="C19">
+        <v>65.7385117516405</v>
+      </c>
+      <c r="D19">
+        <v>55.7135117516405</v>
+      </c>
+      <c r="E19">
+        <v>-4.824999999999999</v>
+      </c>
+      <c r="F19">
+        <v>13.175</v>
+      </c>
+      <c r="G19">
+        <v>23.2</v>
+      </c>
+      <c r="H19">
+        <v>59.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>13.9</v>
+      </c>
+      <c r="K19">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L19">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M19">
+        <v>0.213435</v>
+      </c>
+      <c r="N19">
+        <v>3.736565000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.6352160500000003</v>
+      </c>
+      <c r="P19">
+        <v>3.101348950000001</v>
+      </c>
+      <c r="Q19">
+        <v>13.05134895</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07749758705688006</v>
+      </c>
+      <c r="T19">
+        <v>1.444864132561018</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.17</v>
+      </c>
+      <c r="W19">
+        <v>0.013446</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>18.50680535057512</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.06655118674610216</v>
+      </c>
+      <c r="C20">
+        <v>65.01959439971073</v>
+      </c>
+      <c r="D20">
+        <v>55.76959439971073</v>
+      </c>
+      <c r="E20">
+        <v>-4.050000000000001</v>
+      </c>
+      <c r="F20">
+        <v>13.95</v>
+      </c>
+      <c r="G20">
+        <v>23.2</v>
+      </c>
+      <c r="H20">
+        <v>59.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>13.9</v>
+      </c>
+      <c r="K20">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L20">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.22599</v>
+      </c>
+      <c r="N20">
+        <v>3.724010000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.6330817000000002</v>
+      </c>
+      <c r="P20">
+        <v>3.090928300000001</v>
+      </c>
+      <c r="Q20">
+        <v>13.0409283</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.0782084228611002</v>
+      </c>
+      <c r="T20">
+        <v>1.459924213158903</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.17</v>
+      </c>
+      <c r="W20">
+        <v>0.013446</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>17.4786494977654</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.06649355623499388</v>
+      </c>
+      <c r="C21">
+        <v>64.30079007001233</v>
+      </c>
+      <c r="D21">
+        <v>55.82579007001232</v>
+      </c>
+      <c r="E21">
+        <v>-3.275</v>
+      </c>
+      <c r="F21">
+        <v>14.725</v>
+      </c>
+      <c r="G21">
+        <v>23.2</v>
+      </c>
+      <c r="H21">
+        <v>59.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>13.9</v>
+      </c>
+      <c r="K21">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L21">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.238545</v>
+      </c>
+      <c r="N21">
+        <v>3.711455000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.6309473500000002</v>
+      </c>
+      <c r="P21">
+        <v>3.080507650000001</v>
+      </c>
+      <c r="Q21">
+        <v>13.03050765</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07893681016665911</v>
+      </c>
+      <c r="T21">
+        <v>1.47535614759871</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.17</v>
+      </c>
+      <c r="W21">
+        <v>0.013446</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>16.55872057683037</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.0664359257238856</v>
+      </c>
+      <c r="C22">
+        <v>63.58209910454703</v>
+      </c>
+      <c r="D22">
+        <v>55.88209910454703</v>
+      </c>
+      <c r="E22">
+        <v>-2.5</v>
+      </c>
+      <c r="F22">
+        <v>15.5</v>
+      </c>
+      <c r="G22">
+        <v>23.2</v>
+      </c>
+      <c r="H22">
+        <v>59.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>13.9</v>
+      </c>
+      <c r="K22">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L22">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.2511</v>
+      </c>
+      <c r="N22">
+        <v>3.698900000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.6288130000000002</v>
+      </c>
+      <c r="P22">
+        <v>3.070087000000001</v>
+      </c>
+      <c r="Q22">
+        <v>13.020087</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07968340715485699</v>
+      </c>
+      <c r="T22">
+        <v>1.491173880399512</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.17</v>
+      </c>
+      <c r="W22">
+        <v>0.013446</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>15.73078454798885</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.06637829521277731</v>
+      </c>
+      <c r="C23">
+        <v>62.86352184669784</v>
+      </c>
+      <c r="D23">
+        <v>55.93852184669785</v>
+      </c>
+      <c r="E23">
+        <v>-1.725000000000001</v>
+      </c>
+      <c r="F23">
+        <v>16.275</v>
+      </c>
+      <c r="G23">
+        <v>23.2</v>
+      </c>
+      <c r="H23">
+        <v>59.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>13.9</v>
+      </c>
+      <c r="K23">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L23">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.263655</v>
+      </c>
+      <c r="N23">
+        <v>3.686345000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.6266786500000002</v>
+      </c>
+      <c r="P23">
+        <v>3.059666350000001</v>
+      </c>
+      <c r="Q23">
+        <v>13.00966635</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08044890533262951</v>
+      </c>
+      <c r="T23">
+        <v>1.507392062131981</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.17</v>
+      </c>
+      <c r="W23">
+        <v>0.013446</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>14.98169956951319</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.066320664701669</v>
+      </c>
+      <c r="C24">
+        <v>62.14505864123602</v>
+      </c>
+      <c r="D24">
+        <v>55.99505864123602</v>
+      </c>
+      <c r="E24">
+        <v>-0.9499999999999993</v>
+      </c>
+      <c r="F24">
+        <v>17.05</v>
+      </c>
+      <c r="G24">
+        <v>23.2</v>
+      </c>
+      <c r="H24">
+        <v>59.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>13.9</v>
+      </c>
+      <c r="K24">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L24">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.27621</v>
+      </c>
+      <c r="N24">
+        <v>3.673790000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.6245443000000003</v>
+      </c>
+      <c r="P24">
+        <v>3.049245700000001</v>
+      </c>
+      <c r="Q24">
+        <v>12.9992457</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08123403166880643</v>
+      </c>
+      <c r="T24">
+        <v>1.524026094678102</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.17</v>
+      </c>
+      <c r="W24">
+        <v>0.013446</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>14.30071322544441</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.06656847419056072</v>
+      </c>
+      <c r="C25">
+        <v>61.12775941712584</v>
+      </c>
+      <c r="D25">
+        <v>55.75275941712584</v>
+      </c>
+      <c r="E25">
+        <v>-0.1750000000000007</v>
+      </c>
+      <c r="F25">
+        <v>17.825</v>
+      </c>
+      <c r="G25">
+        <v>23.2</v>
+      </c>
+      <c r="H25">
+        <v>59.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>13.9</v>
+      </c>
+      <c r="K25">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L25">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0.317285</v>
+      </c>
+      <c r="N25">
+        <v>3.632715000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.6175615500000002</v>
+      </c>
+      <c r="P25">
+        <v>3.015153450000001</v>
+      </c>
+      <c r="Q25">
+        <v>12.96515345</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08203955089683211</v>
+      </c>
+      <c r="T25">
+        <v>1.54109218001763</v>
+      </c>
+      <c r="U25">
+        <v>0.0178</v>
+      </c>
+      <c r="V25">
+        <v>0.17</v>
+      </c>
+      <c r="W25">
+        <v>0.014774</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>12.44937516743622</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.06652412367945244</v>
+      </c>
+      <c r="C26">
+        <v>60.39596957425638</v>
+      </c>
+      <c r="D26">
+        <v>55.79596957425638</v>
+      </c>
+      <c r="E26">
+        <v>0.5999999999999979</v>
+      </c>
+      <c r="F26">
+        <v>18.6</v>
+      </c>
+      <c r="G26">
+        <v>23.2</v>
+      </c>
+      <c r="H26">
+        <v>59.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>13.9</v>
+      </c>
+      <c r="K26">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L26">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.33108</v>
+      </c>
+      <c r="N26">
+        <v>3.618920000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.6152164000000002</v>
+      </c>
+      <c r="P26">
+        <v>3.003703600000001</v>
+      </c>
+      <c r="Q26">
+        <v>12.9537036</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08286626799927953</v>
+      </c>
+      <c r="T26">
+        <v>1.558607372866092</v>
+      </c>
+      <c r="U26">
+        <v>0.0178</v>
+      </c>
+      <c r="V26">
+        <v>0.17</v>
+      </c>
+      <c r="W26">
+        <v>0.014774</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>11.93065120212638</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.06647977316834416</v>
+      </c>
+      <c r="C27">
+        <v>59.6642467618226</v>
+      </c>
+      <c r="D27">
+        <v>55.83924676182259</v>
+      </c>
+      <c r="E27">
+        <v>1.375</v>
+      </c>
+      <c r="F27">
+        <v>19.375</v>
+      </c>
+      <c r="G27">
+        <v>23.2</v>
+      </c>
+      <c r="H27">
+        <v>59.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>13.9</v>
+      </c>
+      <c r="K27">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L27">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M27">
+        <v>0.344875</v>
+      </c>
+      <c r="N27">
+        <v>3.605125000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.6128712500000002</v>
+      </c>
+      <c r="P27">
+        <v>2.992253750000001</v>
+      </c>
+      <c r="Q27">
+        <v>12.94225375</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08371503089112554</v>
+      </c>
+      <c r="T27">
+        <v>1.576589637523846</v>
+      </c>
+      <c r="U27">
+        <v>0.0178</v>
+      </c>
+      <c r="V27">
+        <v>0.17</v>
+      </c>
+      <c r="W27">
+        <v>0.014774</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>11.45342515404132</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.06643542265723586</v>
+      </c>
+      <c r="C28">
+        <v>58.93259113591861</v>
+      </c>
+      <c r="D28">
+        <v>55.88259113591862</v>
+      </c>
+      <c r="E28">
+        <v>2.150000000000002</v>
+      </c>
+      <c r="F28">
+        <v>20.15</v>
+      </c>
+      <c r="G28">
+        <v>23.2</v>
+      </c>
+      <c r="H28">
+        <v>59.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>13.9</v>
+      </c>
+      <c r="K28">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L28">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.35867</v>
+      </c>
+      <c r="N28">
+        <v>3.591330000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.6105261000000002</v>
+      </c>
+      <c r="P28">
+        <v>2.980803900000001</v>
+      </c>
+      <c r="Q28">
+        <v>12.9308039</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.08458673332058901</v>
+      </c>
+      <c r="T28">
+        <v>1.595057909334513</v>
+      </c>
+      <c r="U28">
+        <v>0.0178</v>
+      </c>
+      <c r="V28">
+        <v>0.17</v>
+      </c>
+      <c r="W28">
+        <v>0.014774</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>11.01290880196281</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.06688409214612757</v>
+      </c>
+      <c r="C29">
+        <v>57.72217898182454</v>
+      </c>
+      <c r="D29">
+        <v>55.44717898182454</v>
+      </c>
+      <c r="E29">
+        <v>2.925000000000001</v>
+      </c>
+      <c r="F29">
+        <v>20.925</v>
+      </c>
+      <c r="G29">
+        <v>23.2</v>
+      </c>
+      <c r="H29">
+        <v>59.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>13.9</v>
+      </c>
+      <c r="K29">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L29">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.4184999999999999</v>
+      </c>
+      <c r="N29">
+        <v>3.531500000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.6003550000000002</v>
+      </c>
+      <c r="P29">
+        <v>2.931145000000001</v>
+      </c>
+      <c r="Q29">
+        <v>12.881145</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08548231800839394</v>
+      </c>
+      <c r="T29">
+        <v>1.614032161194787</v>
+      </c>
+      <c r="U29">
+        <v>0.02</v>
+      </c>
+      <c r="V29">
+        <v>0.17</v>
+      </c>
+      <c r="W29">
+        <v>0.0166</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>9.438470728793314</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.06685800163501929</v>
+      </c>
+      <c r="C30">
+        <v>56.97231267649869</v>
+      </c>
+      <c r="D30">
+        <v>55.47231267649869</v>
+      </c>
+      <c r="E30">
+        <v>3.700000000000003</v>
+      </c>
+      <c r="F30">
+        <v>21.7</v>
+      </c>
+      <c r="G30">
+        <v>23.2</v>
+      </c>
+      <c r="H30">
+        <v>59.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>13.9</v>
+      </c>
+      <c r="K30">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L30">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0.434</v>
+      </c>
+      <c r="N30">
+        <v>3.516000000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.5977200000000003</v>
+      </c>
+      <c r="P30">
+        <v>2.918280000000001</v>
+      </c>
+      <c r="Q30">
+        <v>12.86828</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08640278004863791</v>
+      </c>
+      <c r="T30">
+        <v>1.633533475606735</v>
+      </c>
+      <c r="U30">
+        <v>0.02</v>
+      </c>
+      <c r="V30">
+        <v>0.17</v>
+      </c>
+      <c r="W30">
+        <v>0.0166</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>9.101382488479265</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.066831911123911</v>
+      </c>
+      <c r="C31">
+        <v>56.2224691672499</v>
+      </c>
+      <c r="D31">
+        <v>55.4974691672499</v>
+      </c>
+      <c r="E31">
+        <v>4.474999999999998</v>
+      </c>
+      <c r="F31">
+        <v>22.475</v>
+      </c>
+      <c r="G31">
+        <v>23.2</v>
+      </c>
+      <c r="H31">
+        <v>59.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>13.9</v>
+      </c>
+      <c r="K31">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L31">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.4494999999999999</v>
+      </c>
+      <c r="N31">
+        <v>3.500500000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.5950850000000002</v>
+      </c>
+      <c r="P31">
+        <v>2.905415000000001</v>
+      </c>
+      <c r="Q31">
+        <v>12.855415</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08734917059705775</v>
+      </c>
+      <c r="T31">
+        <v>1.65358412281902</v>
+      </c>
+      <c r="U31">
+        <v>0.02</v>
+      </c>
+      <c r="V31">
+        <v>0.17</v>
+      </c>
+      <c r="W31">
+        <v>0.0166</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>8.787541713014464</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06680582061280271</v>
+      </c>
+      <c r="C32">
+        <v>55.47264848510608</v>
+      </c>
+      <c r="D32">
+        <v>55.52264848510608</v>
+      </c>
+      <c r="E32">
+        <v>5.25</v>
+      </c>
+      <c r="F32">
+        <v>23.25</v>
+      </c>
+      <c r="G32">
+        <v>23.2</v>
+      </c>
+      <c r="H32">
+        <v>59.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>13.9</v>
+      </c>
+      <c r="K32">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L32">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.4649999999999999</v>
+      </c>
+      <c r="N32">
+        <v>3.485000000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.5924500000000003</v>
+      </c>
+      <c r="P32">
+        <v>2.892550000000001</v>
+      </c>
+      <c r="Q32">
+        <v>12.84255</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08832260087543245</v>
+      </c>
+      <c r="T32">
+        <v>1.674207645665942</v>
+      </c>
+      <c r="U32">
+        <v>0.02</v>
+      </c>
+      <c r="V32">
+        <v>0.17</v>
+      </c>
+      <c r="W32">
+        <v>0.0166</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>8.494623655913983</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.06677973010169443</v>
+      </c>
+      <c r="C33">
+        <v>54.72285066115143</v>
+      </c>
+      <c r="D33">
+        <v>55.54785066115144</v>
+      </c>
+      <c r="E33">
+        <v>6.024999999999999</v>
+      </c>
+      <c r="F33">
+        <v>24.025</v>
+      </c>
+      <c r="G33">
+        <v>23.2</v>
+      </c>
+      <c r="H33">
+        <v>59.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>13.9</v>
+      </c>
+      <c r="K33">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L33">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M33">
+        <v>0.4804999999999999</v>
+      </c>
+      <c r="N33">
+        <v>3.469500000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.5898150000000003</v>
+      </c>
+      <c r="P33">
+        <v>2.879685000000001</v>
+      </c>
+      <c r="Q33">
+        <v>12.829685</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08932424652419482</v>
+      </c>
+      <c r="T33">
+        <v>1.695428951783789</v>
+      </c>
+      <c r="U33">
+        <v>0.02</v>
+      </c>
+      <c r="V33">
+        <v>0.17</v>
+      </c>
+      <c r="W33">
+        <v>0.0166</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>8.220603537981274</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.06675363959058614</v>
+      </c>
+      <c r="C34">
+        <v>53.97307572652664</v>
+      </c>
+      <c r="D34">
+        <v>55.57307572652664</v>
+      </c>
+      <c r="E34">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="F34">
+        <v>24.8</v>
+      </c>
+      <c r="G34">
+        <v>23.2</v>
+      </c>
+      <c r="H34">
+        <v>59.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>13.9</v>
+      </c>
+      <c r="K34">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L34">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.4959999999999999</v>
+      </c>
+      <c r="N34">
+        <v>3.454000000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.5871800000000003</v>
+      </c>
+      <c r="P34">
+        <v>2.866820000000001</v>
+      </c>
+      <c r="Q34">
+        <v>12.81682</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09035535233909728</v>
+      </c>
+      <c r="T34">
+        <v>1.717274413963925</v>
+      </c>
+      <c r="U34">
+        <v>0.02</v>
+      </c>
+      <c r="V34">
+        <v>0.17</v>
+      </c>
+      <c r="W34">
+        <v>0.0166</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>7.963709677419358</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.06702883907947788</v>
+      </c>
+      <c r="C35">
+        <v>52.93315298981568</v>
+      </c>
+      <c r="D35">
+        <v>55.30815298981568</v>
+      </c>
+      <c r="E35">
+        <v>7.575000000000003</v>
+      </c>
+      <c r="F35">
+        <v>25.575</v>
+      </c>
+      <c r="G35">
+        <v>23.2</v>
+      </c>
+      <c r="H35">
+        <v>59.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>13.9</v>
+      </c>
+      <c r="K35">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L35">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M35">
+        <v>0.5396325000000001</v>
+      </c>
+      <c r="N35">
+        <v>3.410367500000001</v>
+      </c>
+      <c r="O35">
+        <v>0.5797624750000002</v>
+      </c>
+      <c r="P35">
+        <v>2.830605025000001</v>
+      </c>
+      <c r="Q35">
+        <v>12.780605025</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09141723743205653</v>
+      </c>
+      <c r="T35">
+        <v>1.739771979492723</v>
+      </c>
+      <c r="U35">
+        <v>0.0211</v>
+      </c>
+      <c r="V35">
+        <v>0.17</v>
+      </c>
+      <c r="W35">
+        <v>0.017513</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>7.319796342881498</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.06701187856836957</v>
+      </c>
+      <c r="C36">
+        <v>52.17440708804352</v>
+      </c>
+      <c r="D36">
+        <v>55.32440708804352</v>
+      </c>
+      <c r="E36">
+        <v>8.350000000000001</v>
+      </c>
+      <c r="F36">
+        <v>26.35</v>
+      </c>
+      <c r="G36">
+        <v>23.2</v>
+      </c>
+      <c r="H36">
+        <v>59.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>13.9</v>
+      </c>
+      <c r="K36">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L36">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M36">
+        <v>0.5559850000000001</v>
+      </c>
+      <c r="N36">
+        <v>3.394015000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.5769825500000002</v>
+      </c>
+      <c r="P36">
+        <v>2.817032450000001</v>
+      </c>
+      <c r="Q36">
+        <v>12.76703245</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09251130086116603</v>
+      </c>
+      <c r="T36">
+        <v>1.762951289431484</v>
+      </c>
+      <c r="U36">
+        <v>0.0211</v>
+      </c>
+      <c r="V36">
+        <v>0.17</v>
+      </c>
+      <c r="W36">
+        <v>0.017513</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>7.10450821514969</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.06699491805726128</v>
+      </c>
+      <c r="C37">
+        <v>51.41567074266983</v>
+      </c>
+      <c r="D37">
+        <v>55.34067074266983</v>
+      </c>
+      <c r="E37">
+        <v>9.125000000000004</v>
+      </c>
+      <c r="F37">
+        <v>27.125</v>
+      </c>
+      <c r="G37">
+        <v>23.2</v>
+      </c>
+      <c r="H37">
+        <v>59.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>13.9</v>
+      </c>
+      <c r="K37">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L37">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M37">
+        <v>0.5723375000000001</v>
+      </c>
+      <c r="N37">
+        <v>3.377662500000001</v>
+      </c>
+      <c r="O37">
+        <v>0.5742026250000002</v>
+      </c>
+      <c r="P37">
+        <v>2.803459875000001</v>
+      </c>
+      <c r="Q37">
+        <v>12.753459875</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.09363902778040198</v>
+      </c>
+      <c r="T37">
+        <v>1.786843808906821</v>
+      </c>
+      <c r="U37">
+        <v>0.0211</v>
+      </c>
+      <c r="V37">
+        <v>0.17</v>
+      </c>
+      <c r="W37">
+        <v>0.017513</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>6.901522266145413</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.06697795754615299</v>
+      </c>
+      <c r="C38">
+        <v>50.65694396212495</v>
+      </c>
+      <c r="D38">
+        <v>55.35694396212494</v>
+      </c>
+      <c r="E38">
+        <v>9.899999999999999</v>
+      </c>
+      <c r="F38">
+        <v>27.9</v>
+      </c>
+      <c r="G38">
+        <v>23.2</v>
+      </c>
+      <c r="H38">
+        <v>59.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>13.9</v>
+      </c>
+      <c r="K38">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L38">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M38">
+        <v>0.5886899999999999</v>
+      </c>
+      <c r="N38">
+        <v>3.361310000000001</v>
+      </c>
+      <c r="O38">
+        <v>0.5714227000000003</v>
+      </c>
+      <c r="P38">
+        <v>2.789887300000001</v>
+      </c>
+      <c r="Q38">
+        <v>12.7398873</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09480199616586406</v>
+      </c>
+      <c r="T38">
+        <v>1.811482969615764</v>
+      </c>
+      <c r="U38">
+        <v>0.0211</v>
+      </c>
+      <c r="V38">
+        <v>0.17</v>
+      </c>
+      <c r="W38">
+        <v>0.017513</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>6.709813314308043</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.06696099703504471</v>
+      </c>
+      <c r="C39">
+        <v>49.89822675484911</v>
+      </c>
+      <c r="D39">
+        <v>55.3732267548491</v>
+      </c>
+      <c r="E39">
+        <v>10.675</v>
+      </c>
+      <c r="F39">
+        <v>28.675</v>
+      </c>
+      <c r="G39">
+        <v>23.2</v>
+      </c>
+      <c r="H39">
+        <v>59.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>13.9</v>
+      </c>
+      <c r="K39">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L39">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.6050425</v>
+      </c>
+      <c r="N39">
+        <v>3.344957500000001</v>
+      </c>
+      <c r="O39">
+        <v>0.5686427750000002</v>
+      </c>
+      <c r="P39">
+        <v>2.776314725000001</v>
+      </c>
+      <c r="Q39">
+        <v>12.726314725</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09600188418261066</v>
+      </c>
+      <c r="T39">
+        <v>1.836904325902768</v>
+      </c>
+      <c r="U39">
+        <v>0.0211</v>
+      </c>
+      <c r="V39">
+        <v>0.17</v>
+      </c>
+      <c r="W39">
+        <v>0.017513</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>6.528467008515932</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.06741713652393642</v>
+      </c>
+      <c r="C40">
+        <v>48.68862317902014</v>
+      </c>
+      <c r="D40">
+        <v>54.93862317902015</v>
+      </c>
+      <c r="E40">
+        <v>11.45</v>
+      </c>
+      <c r="F40">
+        <v>29.45</v>
+      </c>
+      <c r="G40">
+        <v>23.2</v>
+      </c>
+      <c r="H40">
+        <v>59.5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>13.9</v>
+      </c>
+      <c r="K40">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L40">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M40">
+        <v>0.66557</v>
+      </c>
+      <c r="N40">
+        <v>3.284430000000001</v>
+      </c>
+      <c r="O40">
+        <v>0.5583531000000003</v>
+      </c>
+      <c r="P40">
+        <v>2.726076900000001</v>
+      </c>
+      <c r="Q40">
+        <v>12.6760769</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.09724047826441359</v>
+      </c>
+      <c r="T40">
+        <v>1.863145725940966</v>
+      </c>
+      <c r="U40">
+        <v>0.0226</v>
+      </c>
+      <c r="V40">
+        <v>0.17</v>
+      </c>
+      <c r="W40">
+        <v>0.018758</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>5.934762684616196</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.06741262601282813</v>
+      </c>
+      <c r="C41">
+        <v>47.91788733445633</v>
+      </c>
+      <c r="D41">
+        <v>54.94288733445634</v>
+      </c>
+      <c r="E41">
+        <v>12.225</v>
+      </c>
+      <c r="F41">
+        <v>30.225</v>
+      </c>
+      <c r="G41">
+        <v>23.2</v>
+      </c>
+      <c r="H41">
+        <v>59.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>13.9</v>
+      </c>
+      <c r="K41">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L41">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M41">
+        <v>0.6830849999999999</v>
+      </c>
+      <c r="N41">
+        <v>3.266915000000001</v>
+      </c>
+      <c r="O41">
+        <v>0.5553755500000002</v>
+      </c>
+      <c r="P41">
+        <v>2.711539450000001</v>
+      </c>
+      <c r="Q41">
+        <v>12.66153945</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.09851968198824283</v>
+      </c>
+      <c r="T41">
+        <v>1.890247499750908</v>
+      </c>
+      <c r="U41">
+        <v>0.0226</v>
+      </c>
+      <c r="V41">
+        <v>0.17</v>
+      </c>
+      <c r="W41">
+        <v>0.018758</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>5.782589282446549</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.06740811550171984</v>
+      </c>
+      <c r="C42">
+        <v>47.14715215188336</v>
+      </c>
+      <c r="D42">
+        <v>54.94715215188337</v>
+      </c>
+      <c r="E42">
+        <v>13</v>
+      </c>
+      <c r="F42">
+        <v>31</v>
+      </c>
+      <c r="G42">
+        <v>23.2</v>
+      </c>
+      <c r="H42">
+        <v>59.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>13.9</v>
+      </c>
+      <c r="K42">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L42">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M42">
+        <v>0.7006</v>
+      </c>
+      <c r="N42">
+        <v>3.249400000000001</v>
+      </c>
+      <c r="O42">
+        <v>0.5523980000000002</v>
+      </c>
+      <c r="P42">
+        <v>2.697002000000001</v>
+      </c>
+      <c r="Q42">
+        <v>12.647002</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.09984152583619973</v>
+      </c>
+      <c r="T42">
+        <v>1.918252666021181</v>
+      </c>
+      <c r="U42">
+        <v>0.0226</v>
+      </c>
+      <c r="V42">
+        <v>0.17</v>
+      </c>
+      <c r="W42">
+        <v>0.018758</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>5.638024550385385</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.06740360499061156</v>
+      </c>
+      <c r="C43">
+        <v>46.37641763145541</v>
+      </c>
+      <c r="D43">
+        <v>54.95141763145541</v>
+      </c>
+      <c r="E43">
+        <v>13.775</v>
+      </c>
+      <c r="F43">
+        <v>31.775</v>
+      </c>
+      <c r="G43">
+        <v>23.2</v>
+      </c>
+      <c r="H43">
+        <v>59.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>13.9</v>
+      </c>
+      <c r="K43">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L43">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M43">
+        <v>0.7181149999999999</v>
+      </c>
+      <c r="N43">
+        <v>3.231885000000001</v>
+      </c>
+      <c r="O43">
+        <v>0.5494204500000002</v>
+      </c>
+      <c r="P43">
+        <v>2.682464550000001</v>
+      </c>
+      <c r="Q43">
+        <v>12.63246455</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1012081779501891</v>
+      </c>
+      <c r="T43">
+        <v>1.947207159961633</v>
+      </c>
+      <c r="U43">
+        <v>0.0226</v>
+      </c>
+      <c r="V43">
+        <v>0.17</v>
+      </c>
+      <c r="W43">
+        <v>0.018758</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>5.500511756473547</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.06739909447950326</v>
+      </c>
+      <c r="C44">
+        <v>45.6056837733267</v>
+      </c>
+      <c r="D44">
+        <v>54.9556837733267</v>
+      </c>
+      <c r="E44">
+        <v>14.55</v>
+      </c>
+      <c r="F44">
+        <v>32.55</v>
+      </c>
+      <c r="G44">
+        <v>23.2</v>
+      </c>
+      <c r="H44">
+        <v>59.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>13.9</v>
+      </c>
+      <c r="K44">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L44">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M44">
+        <v>0.7356299999999999</v>
+      </c>
+      <c r="N44">
+        <v>3.214370000000001</v>
+      </c>
+      <c r="O44">
+        <v>0.5464429000000002</v>
+      </c>
+      <c r="P44">
+        <v>2.667927100000001</v>
+      </c>
+      <c r="Q44">
+        <v>12.6179271</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1026219559991436</v>
+      </c>
+      <c r="T44">
+        <v>1.977160084727618</v>
+      </c>
+      <c r="U44">
+        <v>0.0226</v>
+      </c>
+      <c r="V44">
+        <v>0.17</v>
+      </c>
+      <c r="W44">
+        <v>0.018758</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>5.369547190843225</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.06739458396839498</v>
+      </c>
+      <c r="C45">
+        <v>44.83495057765148</v>
+      </c>
+      <c r="D45">
+        <v>54.95995057765149</v>
+      </c>
+      <c r="E45">
+        <v>15.325</v>
+      </c>
+      <c r="F45">
+        <v>33.325</v>
+      </c>
+      <c r="G45">
+        <v>23.2</v>
+      </c>
+      <c r="H45">
+        <v>59.5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>13.9</v>
+      </c>
+      <c r="K45">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L45">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M45">
+        <v>0.7531450000000001</v>
+      </c>
+      <c r="N45">
+        <v>3.196855000000001</v>
+      </c>
+      <c r="O45">
+        <v>0.5434653500000002</v>
+      </c>
+      <c r="P45">
+        <v>2.653389650000001</v>
+      </c>
+      <c r="Q45">
+        <v>12.60338965</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1040853402954298</v>
+      </c>
+      <c r="T45">
+        <v>2.008163989309953</v>
+      </c>
+      <c r="U45">
+        <v>0.0226</v>
+      </c>
+      <c r="V45">
+        <v>0.17</v>
+      </c>
+      <c r="W45">
+        <v>0.018758</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>5.244674000358498</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.0673900734572867</v>
+      </c>
+      <c r="C46">
+        <v>44.06421804458407</v>
+      </c>
+      <c r="D46">
+        <v>54.96421804458408</v>
+      </c>
+      <c r="E46">
+        <v>16.1</v>
+      </c>
+      <c r="F46">
+        <v>34.1</v>
+      </c>
+      <c r="G46">
+        <v>23.2</v>
+      </c>
+      <c r="H46">
+        <v>59.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>13.9</v>
+      </c>
+      <c r="K46">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L46">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M46">
+        <v>0.77066</v>
+      </c>
+      <c r="N46">
+        <v>3.179340000000001</v>
+      </c>
+      <c r="O46">
+        <v>0.5404878000000002</v>
+      </c>
+      <c r="P46">
+        <v>2.638852200000001</v>
+      </c>
+      <c r="Q46">
+        <v>12.5888522</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1056009883165834</v>
+      </c>
+      <c r="T46">
+        <v>2.040275176198801</v>
+      </c>
+      <c r="U46">
+        <v>0.0226</v>
+      </c>
+      <c r="V46">
+        <v>0.17</v>
+      </c>
+      <c r="W46">
+        <v>0.018758</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>5.125476863986714</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.06738556294617841</v>
+      </c>
+      <c r="C47">
+        <v>43.29348617427887</v>
+      </c>
+      <c r="D47">
+        <v>54.96848617427887</v>
+      </c>
+      <c r="E47">
+        <v>16.875</v>
+      </c>
+      <c r="F47">
+        <v>34.875</v>
+      </c>
+      <c r="G47">
+        <v>23.2</v>
+      </c>
+      <c r="H47">
+        <v>59.5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>13.9</v>
+      </c>
+      <c r="K47">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L47">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M47">
+        <v>0.788175</v>
+      </c>
+      <c r="N47">
+        <v>3.161825000000001</v>
+      </c>
+      <c r="O47">
+        <v>0.5375102500000003</v>
+      </c>
+      <c r="P47">
+        <v>2.624314750000001</v>
+      </c>
+      <c r="Q47">
+        <v>12.57431475</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1071717508112335</v>
+      </c>
+      <c r="T47">
+        <v>2.073554042610879</v>
+      </c>
+      <c r="U47">
+        <v>0.0226</v>
+      </c>
+      <c r="V47">
+        <v>0.17</v>
+      </c>
+      <c r="W47">
+        <v>0.018758</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>5.011577378120343</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.06738105243507013</v>
+      </c>
+      <c r="C48">
+        <v>42.52275496689023</v>
+      </c>
+      <c r="D48">
+        <v>54.97275496689022</v>
+      </c>
+      <c r="E48">
+        <v>17.65</v>
+      </c>
+      <c r="F48">
+        <v>35.65</v>
+      </c>
+      <c r="G48">
+        <v>23.2</v>
+      </c>
+      <c r="H48">
+        <v>59.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>13.9</v>
+      </c>
+      <c r="K48">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L48">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0.8056899999999999</v>
+      </c>
+      <c r="N48">
+        <v>3.144310000000001</v>
+      </c>
+      <c r="O48">
+        <v>0.5345327000000003</v>
+      </c>
+      <c r="P48">
+        <v>2.609777300000001</v>
+      </c>
+      <c r="Q48">
+        <v>12.5597773</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1088006896945743</v>
+      </c>
+      <c r="T48">
+        <v>2.108065459630811</v>
+      </c>
+      <c r="U48">
+        <v>0.0226</v>
+      </c>
+      <c r="V48">
+        <v>0.17</v>
+      </c>
+      <c r="W48">
+        <v>0.018758</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>4.90263004381338</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.06737654192396184</v>
+      </c>
+      <c r="C49">
+        <v>41.75202442257261</v>
+      </c>
+      <c r="D49">
+        <v>54.97702442257262</v>
+      </c>
+      <c r="E49">
+        <v>18.425</v>
+      </c>
+      <c r="F49">
+        <v>36.425</v>
+      </c>
+      <c r="G49">
+        <v>23.2</v>
+      </c>
+      <c r="H49">
+        <v>59.5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>13.9</v>
+      </c>
+      <c r="K49">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L49">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M49">
+        <v>0.8232050000000001</v>
+      </c>
+      <c r="N49">
+        <v>3.126795000000001</v>
+      </c>
+      <c r="O49">
+        <v>0.5315551500000002</v>
+      </c>
+      <c r="P49">
+        <v>2.59523985</v>
+      </c>
+      <c r="Q49">
+        <v>12.54523985</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1104910979697393</v>
+      </c>
+      <c r="T49">
+        <v>2.143879194274138</v>
+      </c>
+      <c r="U49">
+        <v>0.0226</v>
+      </c>
+      <c r="V49">
+        <v>0.17</v>
+      </c>
+      <c r="W49">
+        <v>0.018758</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>4.798318766285433</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.06737203141285354</v>
+      </c>
+      <c r="C50">
+        <v>40.98129454148057</v>
+      </c>
+      <c r="D50">
+        <v>54.98129454148057</v>
+      </c>
+      <c r="E50">
+        <v>19.2</v>
+      </c>
+      <c r="F50">
+        <v>37.2</v>
+      </c>
+      <c r="G50">
+        <v>23.2</v>
+      </c>
+      <c r="H50">
+        <v>59.5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>13.9</v>
+      </c>
+      <c r="K50">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L50">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M50">
+        <v>0.8407199999999998</v>
+      </c>
+      <c r="N50">
+        <v>3.109280000000001</v>
+      </c>
+      <c r="O50">
+        <v>0.5285776000000003</v>
+      </c>
+      <c r="P50">
+        <v>2.580702400000001</v>
+      </c>
+      <c r="Q50">
+        <v>12.5307024</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1122465219477953</v>
+      </c>
+      <c r="T50">
+        <v>2.1810703802499</v>
+      </c>
+      <c r="U50">
+        <v>0.0226</v>
+      </c>
+      <c r="V50">
+        <v>0.17</v>
+      </c>
+      <c r="W50">
+        <v>0.018758</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>4.698353791987822</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.06736752090174526</v>
+      </c>
+      <c r="C51">
+        <v>40.2105653237686</v>
+      </c>
+      <c r="D51">
+        <v>54.9855653237686</v>
+      </c>
+      <c r="E51">
+        <v>19.975</v>
+      </c>
+      <c r="F51">
+        <v>37.975</v>
+      </c>
+      <c r="G51">
+        <v>23.2</v>
+      </c>
+      <c r="H51">
+        <v>59.5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>13.9</v>
+      </c>
+      <c r="K51">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L51">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M51">
+        <v>0.858235</v>
+      </c>
+      <c r="N51">
+        <v>3.091765000000001</v>
+      </c>
+      <c r="O51">
+        <v>0.5256000500000002</v>
+      </c>
+      <c r="P51">
+        <v>2.566164950000001</v>
+      </c>
+      <c r="Q51">
+        <v>12.51616495</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1140707860818535</v>
+      </c>
+      <c r="T51">
+        <v>2.219720044107065</v>
+      </c>
+      <c r="U51">
+        <v>0.0226</v>
+      </c>
+      <c r="V51">
+        <v>0.17</v>
+      </c>
+      <c r="W51">
+        <v>0.018758</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>4.602469020722763</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.06736301039063697</v>
+      </c>
+      <c r="C52">
+        <v>39.43983676959134</v>
+      </c>
+      <c r="D52">
+        <v>54.98983676959134</v>
+      </c>
+      <c r="E52">
+        <v>20.75</v>
+      </c>
+      <c r="F52">
+        <v>38.75</v>
+      </c>
+      <c r="G52">
+        <v>23.2</v>
+      </c>
+      <c r="H52">
+        <v>59.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>13.9</v>
+      </c>
+      <c r="K52">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L52">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M52">
+        <v>0.8757499999999999</v>
+      </c>
+      <c r="N52">
+        <v>3.074250000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.5226225000000002</v>
+      </c>
+      <c r="P52">
+        <v>2.551627500000001</v>
+      </c>
+      <c r="Q52">
+        <v>12.5016275</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.115968020781274</v>
+      </c>
+      <c r="T52">
+        <v>2.259915694518516</v>
+      </c>
+      <c r="U52">
+        <v>0.0226</v>
+      </c>
+      <c r="V52">
+        <v>0.17</v>
+      </c>
+      <c r="W52">
+        <v>0.018758</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>4.510419640308308</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1051376073414022</v>
+      </c>
+      <c r="C53">
+        <v>16.99047554560951</v>
+      </c>
+      <c r="D53">
+        <v>33.31547554560951</v>
+      </c>
+      <c r="E53">
+        <v>21.525</v>
+      </c>
+      <c r="F53">
+        <v>39.525</v>
+      </c>
+      <c r="G53">
+        <v>23.2</v>
+      </c>
+      <c r="H53">
+        <v>59.5</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>13.9</v>
+      </c>
+      <c r="K53">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L53">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M53">
+        <v>4.308225</v>
+      </c>
+      <c r="N53">
+        <v>-0.3582249999999991</v>
+      </c>
+      <c r="O53">
+        <v>-0.06089824999999986</v>
+      </c>
+      <c r="P53">
+        <v>-0.2973267499999993</v>
+      </c>
+      <c r="Q53">
+        <v>9.652673249999999</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1188002519804785</v>
+      </c>
+      <c r="T53">
+        <v>2.319920592806748</v>
+      </c>
+      <c r="U53">
+        <v>0.109</v>
+      </c>
+      <c r="V53">
+        <v>0.1558646542369538</v>
+      </c>
+      <c r="W53">
+        <v>0.09201075268817205</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.9168509072761987</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1061346073414022</v>
+      </c>
+      <c r="C54">
+        <v>15.87246254611578</v>
+      </c>
+      <c r="D54">
+        <v>32.97246254611579</v>
+      </c>
+      <c r="E54">
+        <v>22.3</v>
+      </c>
+      <c r="F54">
+        <v>40.3</v>
+      </c>
+      <c r="G54">
+        <v>23.2</v>
+      </c>
+      <c r="H54">
+        <v>59.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>13.9</v>
+      </c>
+      <c r="K54">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L54">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M54">
+        <v>4.3927</v>
+      </c>
+      <c r="N54">
+        <v>-0.4426999999999994</v>
+      </c>
+      <c r="O54">
+        <v>-0.07525899999999991</v>
+      </c>
+      <c r="P54">
+        <v>-0.3674409999999995</v>
+      </c>
+      <c r="Q54">
+        <v>9.582559</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1210815072300718</v>
+      </c>
+      <c r="T54">
+        <v>2.368252271823555</v>
+      </c>
+      <c r="U54">
+        <v>0.109</v>
+      </c>
+      <c r="V54">
+        <v>0.1528672570400893</v>
+      </c>
+      <c r="W54">
+        <v>0.09233746898263026</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.8992191590593486</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1071316073414022</v>
+      </c>
+      <c r="C55">
+        <v>14.76144082418128</v>
+      </c>
+      <c r="D55">
+        <v>32.63644082418129</v>
+      </c>
+      <c r="E55">
+        <v>23.075</v>
+      </c>
+      <c r="F55">
+        <v>41.075</v>
+      </c>
+      <c r="G55">
+        <v>23.2</v>
+      </c>
+      <c r="H55">
+        <v>59.5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>13.9</v>
+      </c>
+      <c r="K55">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L55">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M55">
+        <v>4.477175</v>
+      </c>
+      <c r="N55">
+        <v>-0.5271749999999988</v>
+      </c>
+      <c r="O55">
+        <v>-0.0896197499999998</v>
+      </c>
+      <c r="P55">
+        <v>-0.4375552499999991</v>
+      </c>
+      <c r="Q55">
+        <v>9.51244475</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1234598371711372</v>
+      </c>
+      <c r="T55">
+        <v>2.418640618032568</v>
+      </c>
+      <c r="U55">
+        <v>0.109</v>
+      </c>
+      <c r="V55">
+        <v>0.1499829691714084</v>
+      </c>
+      <c r="W55">
+        <v>0.09265185636031649</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.8822527598318138</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1081286073414022</v>
+      </c>
+      <c r="C56">
+        <v>13.65719879217222</v>
+      </c>
+      <c r="D56">
+        <v>32.30719879217222</v>
+      </c>
+      <c r="E56">
+        <v>23.85</v>
+      </c>
+      <c r="F56">
+        <v>41.85</v>
+      </c>
+      <c r="G56">
+        <v>23.2</v>
+      </c>
+      <c r="H56">
+        <v>59.5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>13.9</v>
+      </c>
+      <c r="K56">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L56">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M56">
+        <v>4.56165</v>
+      </c>
+      <c r="N56">
+        <v>-0.6116499999999991</v>
+      </c>
+      <c r="O56">
+        <v>-0.1039804999999999</v>
+      </c>
+      <c r="P56">
+        <v>-0.5076694999999993</v>
+      </c>
+      <c r="Q56">
+        <v>9.442330500000001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1259415727618141</v>
+      </c>
+      <c r="T56">
+        <v>2.471219761902841</v>
+      </c>
+      <c r="U56">
+        <v>0.109</v>
+      </c>
+      <c r="V56">
+        <v>0.1472055067793452</v>
+      </c>
+      <c r="W56">
+        <v>0.09295459976105137</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.8659147457608543</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1091256073414022</v>
+      </c>
+      <c r="C57">
+        <v>12.55953331531079</v>
+      </c>
+      <c r="D57">
+        <v>31.98453331531079</v>
+      </c>
+      <c r="E57">
+        <v>24.625</v>
+      </c>
+      <c r="F57">
+        <v>42.625</v>
+      </c>
+      <c r="G57">
+        <v>23.2</v>
+      </c>
+      <c r="H57">
+        <v>59.5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13.9</v>
+      </c>
+      <c r="K57">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L57">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M57">
+        <v>4.646125</v>
+      </c>
+      <c r="N57">
+        <v>-0.6961249999999986</v>
+      </c>
+      <c r="O57">
+        <v>-0.1183412499999998</v>
+      </c>
+      <c r="P57">
+        <v>-0.5777837499999988</v>
+      </c>
+      <c r="Q57">
+        <v>9.372216250000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1285336077120766</v>
+      </c>
+      <c r="T57">
+        <v>2.526135756611793</v>
+      </c>
+      <c r="U57">
+        <v>0.109</v>
+      </c>
+      <c r="V57">
+        <v>0.1445290430197208</v>
+      </c>
+      <c r="W57">
+        <v>0.09324633431085043</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.8501708412924752</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1101226073414022</v>
+      </c>
+      <c r="C58">
+        <v>11.46824929373827</v>
+      </c>
+      <c r="D58">
+        <v>31.66824929373827</v>
+      </c>
+      <c r="E58">
+        <v>25.40000000000001</v>
+      </c>
+      <c r="F58">
+        <v>43.40000000000001</v>
+      </c>
+      <c r="G58">
+        <v>23.2</v>
+      </c>
+      <c r="H58">
+        <v>59.5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13.9</v>
+      </c>
+      <c r="K58">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L58">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M58">
+        <v>4.730600000000001</v>
+      </c>
+      <c r="N58">
+        <v>-0.7805999999999997</v>
+      </c>
+      <c r="O58">
+        <v>-0.132702</v>
+      </c>
+      <c r="P58">
+        <v>-0.6478979999999998</v>
+      </c>
+      <c r="Q58">
+        <v>9.302102</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1312434624328056</v>
+      </c>
+      <c r="T58">
+        <v>2.583547932898425</v>
+      </c>
+      <c r="U58">
+        <v>0.109</v>
+      </c>
+      <c r="V58">
+        <v>0.1419481672515115</v>
+      </c>
+      <c r="W58">
+        <v>0.09352764976958525</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.834989219126538</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1111196073414022</v>
+      </c>
+      <c r="C59">
+        <v>10.38315926913238</v>
+      </c>
+      <c r="D59">
+        <v>31.35815926913239</v>
+      </c>
+      <c r="E59">
+        <v>26.175</v>
+      </c>
+      <c r="F59">
+        <v>44.175</v>
+      </c>
+      <c r="G59">
+        <v>23.2</v>
+      </c>
+      <c r="H59">
+        <v>59.5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>13.9</v>
+      </c>
+      <c r="K59">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L59">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M59">
+        <v>4.815075</v>
+      </c>
+      <c r="N59">
+        <v>-0.8650749999999992</v>
+      </c>
+      <c r="O59">
+        <v>-0.1470627499999999</v>
+      </c>
+      <c r="P59">
+        <v>-0.7180122499999992</v>
+      </c>
+      <c r="Q59">
+        <v>9.23198775</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1340793569079872</v>
+      </c>
+      <c r="T59">
+        <v>2.64363044296583</v>
+      </c>
+      <c r="U59">
+        <v>0.109</v>
+      </c>
+      <c r="V59">
+        <v>0.1394578485278007</v>
+      </c>
+      <c r="W59">
+        <v>0.09379909451046972</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.8203402854576514</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1121166073414022</v>
+      </c>
+      <c r="C60">
+        <v>9.304083054212057</v>
+      </c>
+      <c r="D60">
+        <v>31.05408305421205</v>
+      </c>
+      <c r="E60">
+        <v>26.95</v>
+      </c>
+      <c r="F60">
+        <v>44.95</v>
+      </c>
+      <c r="G60">
+        <v>23.2</v>
+      </c>
+      <c r="H60">
+        <v>59.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>13.9</v>
+      </c>
+      <c r="K60">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L60">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M60">
+        <v>4.89955</v>
+      </c>
+      <c r="N60">
+        <v>-0.9495499999999986</v>
+      </c>
+      <c r="O60">
+        <v>-0.1614234999999998</v>
+      </c>
+      <c r="P60">
+        <v>-0.7881264999999988</v>
+      </c>
+      <c r="Q60">
+        <v>9.1618735</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1370502939772249</v>
+      </c>
+      <c r="T60">
+        <v>2.706574024941206</v>
+      </c>
+      <c r="U60">
+        <v>0.109</v>
+      </c>
+      <c r="V60">
+        <v>0.1370534028635284</v>
+      </c>
+      <c r="W60">
+        <v>0.09406117908787541</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.8061964874325196</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1325527233844782</v>
+      </c>
+      <c r="C61">
+        <v>3.380110865358034</v>
+      </c>
+      <c r="D61">
+        <v>25.90511086535803</v>
+      </c>
+      <c r="E61">
+        <v>27.72499999999999</v>
+      </c>
+      <c r="F61">
+        <v>45.72499999999999</v>
+      </c>
+      <c r="G61">
+        <v>23.2</v>
+      </c>
+      <c r="H61">
+        <v>59.5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>13.9</v>
+      </c>
+      <c r="K61">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L61">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M61">
+        <v>6.410644999999999</v>
+      </c>
+      <c r="N61">
+        <v>-2.460644999999998</v>
+      </c>
+      <c r="O61">
+        <v>-0.4183096499999996</v>
+      </c>
+      <c r="P61">
+        <v>-2.042335349999998</v>
+      </c>
+      <c r="Q61">
+        <v>7.907664650000001</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1426810719841717</v>
+      </c>
+      <c r="T61">
+        <v>2.825870169156181</v>
+      </c>
+      <c r="U61">
+        <v>0.1402</v>
+      </c>
+      <c r="V61">
+        <v>0.1047476501974451</v>
+      </c>
+      <c r="W61">
+        <v>0.1255143794423182</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.6161626482202651</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1338617233844781</v>
+      </c>
+      <c r="C62">
+        <v>2.332878038118757</v>
+      </c>
+      <c r="D62">
+        <v>25.63287803811876</v>
+      </c>
+      <c r="E62">
+        <v>28.5</v>
+      </c>
+      <c r="F62">
+        <v>46.5</v>
+      </c>
+      <c r="G62">
+        <v>23.2</v>
+      </c>
+      <c r="H62">
+        <v>59.5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>13.9</v>
+      </c>
+      <c r="K62">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L62">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M62">
+        <v>6.519299999999999</v>
+      </c>
+      <c r="N62">
+        <v>-2.569299999999998</v>
+      </c>
+      <c r="O62">
+        <v>-0.4367809999999998</v>
+      </c>
+      <c r="P62">
+        <v>-2.132518999999998</v>
+      </c>
+      <c r="Q62">
+        <v>7.817481000000001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.146015598783776</v>
+      </c>
+      <c r="T62">
+        <v>2.896516923385084</v>
+      </c>
+      <c r="U62">
+        <v>0.1402</v>
+      </c>
+      <c r="V62">
+        <v>0.1030018560274877</v>
+      </c>
+      <c r="W62">
+        <v>0.1257591397849462</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.6058932707499274</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1351707233844781</v>
+      </c>
+      <c r="C63">
+        <v>1.291307413515234</v>
+      </c>
+      <c r="D63">
+        <v>25.36630741351523</v>
+      </c>
+      <c r="E63">
+        <v>29.275</v>
+      </c>
+      <c r="F63">
+        <v>47.275</v>
+      </c>
+      <c r="G63">
+        <v>23.2</v>
+      </c>
+      <c r="H63">
+        <v>59.5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>13.9</v>
+      </c>
+      <c r="K63">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L63">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M63">
+        <v>6.627954999999999</v>
+      </c>
+      <c r="N63">
+        <v>-2.677954999999998</v>
+      </c>
+      <c r="O63">
+        <v>-0.4552523499999997</v>
+      </c>
+      <c r="P63">
+        <v>-2.222702649999998</v>
+      </c>
+      <c r="Q63">
+        <v>7.727297350000001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.149521126957719</v>
+      </c>
+      <c r="T63">
+        <v>2.970786588087267</v>
+      </c>
+      <c r="U63">
+        <v>0.1402</v>
+      </c>
+      <c r="V63">
+        <v>0.1013133010106436</v>
+      </c>
+      <c r="W63">
+        <v>0.1259958751983078</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.5959605941802564</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1364797233844781</v>
+      </c>
+      <c r="C64">
+        <v>0.2552241565253581</v>
+      </c>
+      <c r="D64">
+        <v>25.10522415652536</v>
+      </c>
+      <c r="E64">
+        <v>30.05</v>
+      </c>
+      <c r="F64">
+        <v>48.05</v>
+      </c>
+      <c r="G64">
+        <v>23.2</v>
+      </c>
+      <c r="H64">
+        <v>59.5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>13.9</v>
+      </c>
+      <c r="K64">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L64">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M64">
+        <v>6.736609999999999</v>
+      </c>
+      <c r="N64">
+        <v>-2.786609999999998</v>
+      </c>
+      <c r="O64">
+        <v>-0.4737236999999996</v>
+      </c>
+      <c r="P64">
+        <v>-2.312886299999998</v>
+      </c>
+      <c r="Q64">
+        <v>7.637113700000001</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1532111566145011</v>
+      </c>
+      <c r="T64">
+        <v>3.048965182510616</v>
+      </c>
+      <c r="U64">
+        <v>0.1402</v>
+      </c>
+      <c r="V64">
+        <v>0.09967921551047194</v>
+      </c>
+      <c r="W64">
+        <v>0.1262249739854318</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.5863483265321878</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1377887233844781</v>
+      </c>
+      <c r="C65">
+        <v>-0.7755394432308407</v>
+      </c>
+      <c r="D65">
+        <v>24.84946055676916</v>
+      </c>
+      <c r="E65">
+        <v>30.825</v>
+      </c>
+      <c r="F65">
+        <v>48.825</v>
+      </c>
+      <c r="G65">
+        <v>23.2</v>
+      </c>
+      <c r="H65">
+        <v>59.5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>13.9</v>
+      </c>
+      <c r="K65">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L65">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M65">
+        <v>6.845265</v>
+      </c>
+      <c r="N65">
+        <v>-2.895264999999999</v>
+      </c>
+      <c r="O65">
+        <v>-0.4921950499999999</v>
+      </c>
+      <c r="P65">
+        <v>-2.403069949999999</v>
+      </c>
+      <c r="Q65">
+        <v>7.54693005</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1571006473338119</v>
+      </c>
+      <c r="T65">
+        <v>3.131369646902795</v>
+      </c>
+      <c r="U65">
+        <v>0.1402</v>
+      </c>
+      <c r="V65">
+        <v>0.09809700574046443</v>
+      </c>
+      <c r="W65">
+        <v>0.1264467997951869</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.577041210238026</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1390977233844782</v>
+      </c>
+      <c r="C66">
+        <v>-1.801144330748471</v>
+      </c>
+      <c r="D66">
+        <v>24.59885566925153</v>
+      </c>
+      <c r="E66">
+        <v>31.6</v>
+      </c>
+      <c r="F66">
+        <v>49.6</v>
+      </c>
+      <c r="G66">
+        <v>23.2</v>
+      </c>
+      <c r="H66">
+        <v>59.5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>13.9</v>
+      </c>
+      <c r="K66">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L66">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M66">
+        <v>6.95392</v>
+      </c>
+      <c r="N66">
+        <v>-3.003919999999999</v>
+      </c>
+      <c r="O66">
+        <v>-0.5106663999999999</v>
+      </c>
+      <c r="P66">
+        <v>-2.493253599999999</v>
+      </c>
+      <c r="Q66">
+        <v>7.4567464</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1612062208708623</v>
+      </c>
+      <c r="T66">
+        <v>3.218352137094539</v>
+      </c>
+      <c r="U66">
+        <v>0.1402</v>
+      </c>
+      <c r="V66">
+        <v>0.09656424002576966</v>
+      </c>
+      <c r="W66">
+        <v>0.1266616935483871</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.5680249413280569</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1404067233844782</v>
+      </c>
+      <c r="C67">
+        <v>-2.821745023373687</v>
+      </c>
+      <c r="D67">
+        <v>24.35325497662631</v>
+      </c>
+      <c r="E67">
+        <v>32.375</v>
+      </c>
+      <c r="F67">
+        <v>50.375</v>
+      </c>
+      <c r="G67">
+        <v>23.2</v>
+      </c>
+      <c r="H67">
+        <v>59.5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>13.9</v>
+      </c>
+      <c r="K67">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L67">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M67">
+        <v>7.062575</v>
+      </c>
+      <c r="N67">
+        <v>-3.112574999999999</v>
+      </c>
+      <c r="O67">
+        <v>-0.5291377499999999</v>
+      </c>
+      <c r="P67">
+        <v>-2.583437249999999</v>
+      </c>
+      <c r="Q67">
+        <v>7.36656275</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1655463986100298</v>
+      </c>
+      <c r="T67">
+        <v>3.310305055297241</v>
+      </c>
+      <c r="U67">
+        <v>0.1402</v>
+      </c>
+      <c r="V67">
+        <v>0.09507863633306553</v>
+      </c>
+      <c r="W67">
+        <v>0.1268699751861042</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.559286096076856</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1417157233844781</v>
+      </c>
+      <c r="C68">
+        <v>-3.837489928507367</v>
+      </c>
+      <c r="D68">
+        <v>24.11251007149264</v>
+      </c>
+      <c r="E68">
+        <v>33.15000000000001</v>
+      </c>
+      <c r="F68">
+        <v>51.15000000000001</v>
+      </c>
+      <c r="G68">
+        <v>23.2</v>
+      </c>
+      <c r="H68">
+        <v>59.5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>13.9</v>
+      </c>
+      <c r="K68">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L68">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M68">
+        <v>7.17123</v>
+      </c>
+      <c r="N68">
+        <v>-3.221229999999999</v>
+      </c>
+      <c r="O68">
+        <v>-0.5476091</v>
+      </c>
+      <c r="P68">
+        <v>-2.6736209</v>
+      </c>
+      <c r="Q68">
+        <v>7.2763791</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1701418809220894</v>
+      </c>
+      <c r="T68">
+        <v>3.407666968688336</v>
+      </c>
+      <c r="U68">
+        <v>0.1402</v>
+      </c>
+      <c r="V68">
+        <v>0.09363805093407968</v>
+      </c>
+      <c r="W68">
+        <v>0.127071945259042</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.5508120643181157</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1430247233844781</v>
+      </c>
+      <c r="C69">
+        <v>-4.848521642649224</v>
+      </c>
+      <c r="D69">
+        <v>23.87647835735078</v>
+      </c>
+      <c r="E69">
+        <v>33.925</v>
+      </c>
+      <c r="F69">
+        <v>51.925</v>
+      </c>
+      <c r="G69">
+        <v>23.2</v>
+      </c>
+      <c r="H69">
+        <v>59.5</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>13.9</v>
+      </c>
+      <c r="K69">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L69">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M69">
+        <v>7.279885</v>
+      </c>
+      <c r="N69">
+        <v>-3.329884999999999</v>
+      </c>
+      <c r="O69">
+        <v>-0.5660804499999998</v>
+      </c>
+      <c r="P69">
+        <v>-2.763804549999999</v>
+      </c>
+      <c r="Q69">
+        <v>7.18619545</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1750158773136679</v>
+      </c>
+      <c r="T69">
+        <v>3.510929604103134</v>
+      </c>
+      <c r="U69">
+        <v>0.1402</v>
+      </c>
+      <c r="V69">
+        <v>0.0922404680843173</v>
+      </c>
+      <c r="W69">
+        <v>0.1272678863745787</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.5425909887312781</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1443337233844781</v>
+      </c>
+      <c r="C70">
+        <v>-5.854977233048537</v>
+      </c>
+      <c r="D70">
+        <v>23.64502276695147</v>
+      </c>
+      <c r="E70">
+        <v>34.7</v>
+      </c>
+      <c r="F70">
+        <v>52.7</v>
+      </c>
+      <c r="G70">
+        <v>23.2</v>
+      </c>
+      <c r="H70">
+        <v>59.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>13.9</v>
+      </c>
+      <c r="K70">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L70">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M70">
+        <v>7.38854</v>
+      </c>
+      <c r="N70">
+        <v>-3.438539999999999</v>
+      </c>
+      <c r="O70">
+        <v>-0.5845517999999998</v>
+      </c>
+      <c r="P70">
+        <v>-2.853988199999999</v>
+      </c>
+      <c r="Q70">
+        <v>7.0960118</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.18019449847972</v>
+      </c>
+      <c r="T70">
+        <v>3.620646154231357</v>
+      </c>
+      <c r="U70">
+        <v>0.1402</v>
+      </c>
+      <c r="V70">
+        <v>0.0908839906124891</v>
+      </c>
+      <c r="W70">
+        <v>0.127458064516129</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.53461170948523</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1456427233844781</v>
+      </c>
+      <c r="C71">
+        <v>-6.856988503130459</v>
+      </c>
+      <c r="D71">
+        <v>23.41801149686954</v>
+      </c>
+      <c r="E71">
+        <v>35.475</v>
+      </c>
+      <c r="F71">
+        <v>53.475</v>
+      </c>
+      <c r="G71">
+        <v>23.2</v>
+      </c>
+      <c r="H71">
+        <v>59.5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>13.9</v>
+      </c>
+      <c r="K71">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L71">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M71">
+        <v>7.497195</v>
+      </c>
+      <c r="N71">
+        <v>-3.547194999999999</v>
+      </c>
+      <c r="O71">
+        <v>-0.6030231499999998</v>
+      </c>
+      <c r="P71">
+        <v>-2.944171849999999</v>
+      </c>
+      <c r="Q71">
+        <v>7.005828150000001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1857072242371304</v>
+      </c>
+      <c r="T71">
+        <v>3.737441191464627</v>
+      </c>
+      <c r="U71">
+        <v>0.1402</v>
+      </c>
+      <c r="V71">
+        <v>0.08956683132825012</v>
+      </c>
+      <c r="W71">
+        <v>0.1276427302477793</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.5268637136955889</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1469517233844782</v>
+      </c>
+      <c r="C72">
+        <v>-7.854682242777891</v>
+      </c>
+      <c r="D72">
+        <v>23.19531775722211</v>
+      </c>
+      <c r="E72">
+        <v>36.25000000000001</v>
+      </c>
+      <c r="F72">
+        <v>54.25000000000001</v>
+      </c>
+      <c r="G72">
+        <v>23.2</v>
+      </c>
+      <c r="H72">
+        <v>59.5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>13.9</v>
+      </c>
+      <c r="K72">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L72">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M72">
+        <v>7.60585</v>
+      </c>
+      <c r="N72">
+        <v>-3.655849999999999</v>
+      </c>
+      <c r="O72">
+        <v>-0.6214944999999999</v>
+      </c>
+      <c r="P72">
+        <v>-3.034355499999999</v>
+      </c>
+      <c r="Q72">
+        <v>6.9156445</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1915874650450347</v>
+      </c>
+      <c r="T72">
+        <v>3.862022564513448</v>
+      </c>
+      <c r="U72">
+        <v>0.1402</v>
+      </c>
+      <c r="V72">
+        <v>0.08828730516641799</v>
+      </c>
+      <c r="W72">
+        <v>0.1278221198156682</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.5193370892142234</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1482607233844781</v>
+      </c>
+      <c r="C73">
+        <v>-8.848180464467447</v>
+      </c>
+      <c r="D73">
+        <v>22.97681953553255</v>
+      </c>
+      <c r="E73">
+        <v>37.025</v>
+      </c>
+      <c r="F73">
+        <v>55.025</v>
+      </c>
+      <c r="G73">
+        <v>23.2</v>
+      </c>
+      <c r="H73">
+        <v>59.5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>13.9</v>
+      </c>
+      <c r="K73">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L73">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M73">
+        <v>7.714504999999999</v>
+      </c>
+      <c r="N73">
+        <v>-3.764504999999998</v>
+      </c>
+      <c r="O73">
+        <v>-0.6399658499999997</v>
+      </c>
+      <c r="P73">
+        <v>-3.124539149999998</v>
+      </c>
+      <c r="Q73">
+        <v>6.825460850000001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.19787323970176</v>
+      </c>
+      <c r="T73">
+        <v>3.99519575639322</v>
+      </c>
+      <c r="U73">
+        <v>0.1402</v>
+      </c>
+      <c r="V73">
+        <v>0.08704382199505999</v>
+      </c>
+      <c r="W73">
+        <v>0.1279964561562926</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.5120224823238824</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1495697233844782</v>
+      </c>
+      <c r="C74">
+        <v>-9.837600626183828</v>
+      </c>
+      <c r="D74">
+        <v>22.76239937381617</v>
+      </c>
+      <c r="E74">
+        <v>37.8</v>
+      </c>
+      <c r="F74">
+        <v>55.8</v>
+      </c>
+      <c r="G74">
+        <v>23.2</v>
+      </c>
+      <c r="H74">
+        <v>59.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>13.9</v>
+      </c>
+      <c r="K74">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L74">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M74">
+        <v>7.823159999999999</v>
+      </c>
+      <c r="N74">
+        <v>-3.873159999999998</v>
+      </c>
+      <c r="O74">
+        <v>-0.6584371999999996</v>
+      </c>
+      <c r="P74">
+        <v>-3.214722799999998</v>
+      </c>
+      <c r="Q74">
+        <v>6.735277200000001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2046079982625371</v>
+      </c>
+      <c r="T74">
+        <v>4.13788131912155</v>
+      </c>
+      <c r="U74">
+        <v>0.1402</v>
+      </c>
+      <c r="V74">
+        <v>0.08583488002290639</v>
+      </c>
+      <c r="W74">
+        <v>0.1281659498207885</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.5049110589582728</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1834867440421566</v>
+      </c>
+      <c r="C75">
+        <v>-15.04481373186771</v>
+      </c>
+      <c r="D75">
+        <v>18.33018626813229</v>
+      </c>
+      <c r="E75">
+        <v>38.575</v>
+      </c>
+      <c r="F75">
+        <v>56.575</v>
+      </c>
+      <c r="G75">
+        <v>23.2</v>
+      </c>
+      <c r="H75">
+        <v>59.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>13.9</v>
+      </c>
+      <c r="K75">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L75">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M75">
+        <v>10.3928275</v>
+      </c>
+      <c r="N75">
+        <v>-6.442827499999998</v>
+      </c>
+      <c r="O75">
+        <v>-1.095280675</v>
+      </c>
+      <c r="P75">
+        <v>-5.347546824999998</v>
+      </c>
+      <c r="Q75">
+        <v>4.602453175000001</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2150009635969957</v>
+      </c>
+      <c r="T75">
+        <v>4.358071262648214</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.06461186813694351</v>
+      </c>
+      <c r="W75">
+        <v>0.1718307998232435</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.380069812570256</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1852307440421566</v>
+      </c>
+      <c r="C76">
+        <v>-16.0015207156338</v>
+      </c>
+      <c r="D76">
+        <v>18.14847928436621</v>
+      </c>
+      <c r="E76">
+        <v>39.35</v>
+      </c>
+      <c r="F76">
+        <v>57.35</v>
+      </c>
+      <c r="G76">
+        <v>23.2</v>
+      </c>
+      <c r="H76">
+        <v>59.5</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>13.9</v>
+      </c>
+      <c r="K76">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L76">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M76">
+        <v>10.535195</v>
+      </c>
+      <c r="N76">
+        <v>-6.585194999999999</v>
+      </c>
+      <c r="O76">
+        <v>-1.11948315</v>
+      </c>
+      <c r="P76">
+        <v>-5.465711849999999</v>
+      </c>
+      <c r="Q76">
+        <v>4.48428815</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2229125391199571</v>
+      </c>
+      <c r="T76">
+        <v>4.525689388134685</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.06373873478374156</v>
+      </c>
+      <c r="W76">
+        <v>0.1719911944202267</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.3749337340220091</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1869747440421566</v>
+      </c>
+      <c r="C77">
+        <v>-16.95466054097906</v>
+      </c>
+      <c r="D77">
+        <v>17.97033945902094</v>
+      </c>
+      <c r="E77">
+        <v>40.125</v>
+      </c>
+      <c r="F77">
+        <v>58.125</v>
+      </c>
+      <c r="G77">
+        <v>23.2</v>
+      </c>
+      <c r="H77">
+        <v>59.5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>13.9</v>
+      </c>
+      <c r="K77">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L77">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M77">
+        <v>10.6775625</v>
+      </c>
+      <c r="N77">
+        <v>-6.727562499999999</v>
+      </c>
+      <c r="O77">
+        <v>-1.143685625</v>
+      </c>
+      <c r="P77">
+        <v>-5.583876875</v>
+      </c>
+      <c r="Q77">
+        <v>4.366123125</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2314570406847554</v>
+      </c>
+      <c r="T77">
+        <v>4.706716963660072</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.06288888498662501</v>
+      </c>
+      <c r="W77">
+        <v>0.172147311827957</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.3699346175683824</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1887187440421566</v>
+      </c>
+      <c r="C78">
+        <v>-17.90433722921387</v>
+      </c>
+      <c r="D78">
+        <v>17.79566277078613</v>
+      </c>
+      <c r="E78">
+        <v>40.9</v>
+      </c>
+      <c r="F78">
+        <v>58.9</v>
+      </c>
+      <c r="G78">
+        <v>23.2</v>
+      </c>
+      <c r="H78">
+        <v>59.5</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>13.9</v>
+      </c>
+      <c r="K78">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L78">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M78">
+        <v>10.81993</v>
+      </c>
+      <c r="N78">
+        <v>-6.869929999999998</v>
+      </c>
+      <c r="O78">
+        <v>-1.1678881</v>
+      </c>
+      <c r="P78">
+        <v>-5.702041899999998</v>
+      </c>
+      <c r="Q78">
+        <v>4.247958100000001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2407135840466202</v>
+      </c>
+      <c r="T78">
+        <v>4.902830170479242</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.06206139965785363</v>
+      </c>
+      <c r="W78">
+        <v>0.1722993208828523</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.3650670568109037</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1904627440421566</v>
+      </c>
+      <c r="C79">
+        <v>-18.85065079611937</v>
+      </c>
+      <c r="D79">
+        <v>17.62434920388063</v>
+      </c>
+      <c r="E79">
+        <v>41.675</v>
+      </c>
+      <c r="F79">
+        <v>59.675</v>
+      </c>
+      <c r="G79">
+        <v>23.2</v>
+      </c>
+      <c r="H79">
+        <v>59.5</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>13.9</v>
+      </c>
+      <c r="K79">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L79">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M79">
+        <v>10.9622975</v>
+      </c>
+      <c r="N79">
+        <v>-7.012297499999999</v>
+      </c>
+      <c r="O79">
+        <v>-1.192090575</v>
+      </c>
+      <c r="P79">
+        <v>-5.820206924999999</v>
+      </c>
+      <c r="Q79">
+        <v>4.129793075</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2507750442225602</v>
+      </c>
+      <c r="T79">
+        <v>5.115996699630513</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.06125540745450488</v>
+      </c>
+      <c r="W79">
+        <v>0.1724473816506075</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.3603259262029699</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1922067440421566</v>
+      </c>
+      <c r="C80">
+        <v>-19.79369744290941</v>
+      </c>
+      <c r="D80">
+        <v>17.45630255709059</v>
+      </c>
+      <c r="E80">
+        <v>42.45</v>
+      </c>
+      <c r="F80">
+        <v>60.45</v>
+      </c>
+      <c r="G80">
+        <v>23.2</v>
+      </c>
+      <c r="H80">
+        <v>59.5</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>13.9</v>
+      </c>
+      <c r="K80">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L80">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M80">
+        <v>11.104665</v>
+      </c>
+      <c r="N80">
+        <v>-7.154665</v>
+      </c>
+      <c r="O80">
+        <v>-1.21629305</v>
+      </c>
+      <c r="P80">
+        <v>-5.93837195</v>
+      </c>
+      <c r="Q80">
+        <v>4.01162805</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.261751182596313</v>
+      </c>
+      <c r="T80">
+        <v>5.348542004159174</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.06047008171790866</v>
+      </c>
+      <c r="W80">
+        <v>0.1725916459884202</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.3557063630465215</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1939507440421566</v>
+      </c>
+      <c r="C81">
+        <v>-20.7335697363707</v>
+      </c>
+      <c r="D81">
+        <v>17.29143026362929</v>
+      </c>
+      <c r="E81">
+        <v>43.225</v>
+      </c>
+      <c r="F81">
+        <v>61.225</v>
+      </c>
+      <c r="G81">
+        <v>23.2</v>
+      </c>
+      <c r="H81">
+        <v>59.5</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>13.9</v>
+      </c>
+      <c r="K81">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L81">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M81">
+        <v>11.2470325</v>
+      </c>
+      <c r="N81">
+        <v>-7.297032499999998</v>
+      </c>
+      <c r="O81">
+        <v>-1.240495525</v>
+      </c>
+      <c r="P81">
+        <v>-6.056536974999998</v>
+      </c>
+      <c r="Q81">
+        <v>3.893463025000001</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2737726674818516</v>
+      </c>
+      <c r="T81">
+        <v>5.603234480547705</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.05970463764553008</v>
+      </c>
+      <c r="W81">
+        <v>0.1727322580645161</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.3512037508560593</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1956947440421566</v>
+      </c>
+      <c r="C82">
+        <v>-21.67035677889027</v>
+      </c>
+      <c r="D82">
+        <v>17.12964322110973</v>
+      </c>
+      <c r="E82">
+        <v>44</v>
+      </c>
+      <c r="F82">
+        <v>62</v>
+      </c>
+      <c r="G82">
+        <v>23.2</v>
+      </c>
+      <c r="H82">
+        <v>59.5</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>13.9</v>
+      </c>
+      <c r="K82">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L82">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M82">
+        <v>11.3894</v>
+      </c>
+      <c r="N82">
+        <v>-7.439399999999999</v>
+      </c>
+      <c r="O82">
+        <v>-1.264698</v>
+      </c>
+      <c r="P82">
+        <v>-6.174701999999999</v>
+      </c>
+      <c r="Q82">
+        <v>3.775298</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2869963008559443</v>
+      </c>
+      <c r="T82">
+        <v>5.883396204575091</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.05895832967496095</v>
+      </c>
+      <c r="W82">
+        <v>0.1728693548387097</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.3468137039703585</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1974387440421566</v>
+      </c>
+      <c r="C83">
+        <v>-22.60414436902599</v>
+      </c>
+      <c r="D83">
+        <v>16.97085563097402</v>
+      </c>
+      <c r="E83">
+        <v>44.77500000000001</v>
+      </c>
+      <c r="F83">
+        <v>62.77500000000001</v>
+      </c>
+      <c r="G83">
+        <v>23.2</v>
+      </c>
+      <c r="H83">
+        <v>59.5</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>13.9</v>
+      </c>
+      <c r="K83">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L83">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M83">
+        <v>11.5317675</v>
+      </c>
+      <c r="N83">
+        <v>-7.5817675</v>
+      </c>
+      <c r="O83">
+        <v>-1.288900475</v>
+      </c>
+      <c r="P83">
+        <v>-6.292867025</v>
+      </c>
+      <c r="Q83">
+        <v>3.657132975</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3016118956378361</v>
+      </c>
+      <c r="T83">
+        <v>6.193048636394834</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.05823044906168982</v>
+      </c>
+      <c r="W83">
+        <v>0.1730030665073676</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.3425320533040578</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1991827440421566</v>
+      </c>
+      <c r="C84">
+        <v>-23.53501515322873</v>
+      </c>
+      <c r="D84">
+        <v>16.81498484677128</v>
+      </c>
+      <c r="E84">
+        <v>45.55</v>
+      </c>
+      <c r="F84">
+        <v>63.55</v>
+      </c>
+      <c r="G84">
+        <v>23.2</v>
+      </c>
+      <c r="H84">
+        <v>59.5</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>13.9</v>
+      </c>
+      <c r="K84">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L84">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M84">
+        <v>11.674135</v>
+      </c>
+      <c r="N84">
+        <v>-7.724135</v>
+      </c>
+      <c r="O84">
+        <v>-1.31310295</v>
+      </c>
+      <c r="P84">
+        <v>-6.41103205</v>
+      </c>
+      <c r="Q84">
+        <v>3.538967949999999</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3178514453954937</v>
+      </c>
+      <c r="T84">
+        <v>6.537106893972325</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.05752032163410824</v>
+      </c>
+      <c r="W84">
+        <v>0.1731335169158143</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.3383548331418131</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2009267440421566</v>
+      </c>
+      <c r="C85">
+        <v>-24.4630487692793</v>
+      </c>
+      <c r="D85">
+        <v>16.66195123072071</v>
+      </c>
+      <c r="E85">
+        <v>46.325</v>
+      </c>
+      <c r="F85">
+        <v>64.325</v>
+      </c>
+      <c r="G85">
+        <v>23.2</v>
+      </c>
+      <c r="H85">
+        <v>59.5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>13.9</v>
+      </c>
+      <c r="K85">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L85">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M85">
+        <v>11.8165025</v>
+      </c>
+      <c r="N85">
+        <v>-7.866502499999999</v>
+      </c>
+      <c r="O85">
+        <v>-1.337305425</v>
+      </c>
+      <c r="P85">
+        <v>-6.529197074999999</v>
+      </c>
+      <c r="Q85">
+        <v>3.420802925</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3360015304187581</v>
+      </c>
+      <c r="T85">
+        <v>6.921642593617756</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.05682730571080573</v>
+      </c>
+      <c r="W85">
+        <v>0.173260823940925</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.3342782688870926</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2026707440421566</v>
+      </c>
+      <c r="C86">
+        <v>-25.38832198196363</v>
+      </c>
+      <c r="D86">
+        <v>16.51167801803636</v>
+      </c>
+      <c r="E86">
+        <v>47.09999999999999</v>
+      </c>
+      <c r="F86">
+        <v>65.09999999999999</v>
+      </c>
+      <c r="G86">
+        <v>23.2</v>
+      </c>
+      <c r="H86">
+        <v>59.5</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>13.9</v>
+      </c>
+      <c r="K86">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L86">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M86">
+        <v>11.95887</v>
+      </c>
+      <c r="N86">
+        <v>-8.008869999999998</v>
+      </c>
+      <c r="O86">
+        <v>-1.3615079</v>
+      </c>
+      <c r="P86">
+        <v>-6.647362099999999</v>
+      </c>
+      <c r="Q86">
+        <v>3.302637900000001</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3564203760699303</v>
+      </c>
+      <c r="T86">
+        <v>7.354245255718862</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.05615079016662947</v>
+      </c>
+      <c r="W86">
+        <v>0.1733850998463902</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.3302987656860558</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2044147440421566</v>
+      </c>
+      <c r="C87">
+        <v>-26.31090881147168</v>
+      </c>
+      <c r="D87">
+        <v>16.36409118852832</v>
+      </c>
+      <c r="E87">
+        <v>47.875</v>
+      </c>
+      <c r="F87">
+        <v>65.875</v>
+      </c>
+      <c r="G87">
+        <v>23.2</v>
+      </c>
+      <c r="H87">
+        <v>59.5</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>13.9</v>
+      </c>
+      <c r="K87">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L87">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M87">
+        <v>12.1012375</v>
+      </c>
+      <c r="N87">
+        <v>-8.151237499999999</v>
+      </c>
+      <c r="O87">
+        <v>-1.385710375</v>
+      </c>
+      <c r="P87">
+        <v>-6.765527124999998</v>
+      </c>
+      <c r="Q87">
+        <v>3.184472875000001</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3795617344745923</v>
+      </c>
+      <c r="T87">
+        <v>7.844528272766786</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.05549019263525736</v>
+      </c>
+      <c r="W87">
+        <v>0.1735064516129032</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.326412897854455</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2061587440421566</v>
+      </c>
+      <c r="C88">
+        <v>-27.23088065497122</v>
+      </c>
+      <c r="D88">
+        <v>16.21911934502879</v>
+      </c>
+      <c r="E88">
+        <v>48.65000000000001</v>
+      </c>
+      <c r="F88">
+        <v>66.65000000000001</v>
+      </c>
+      <c r="G88">
+        <v>23.2</v>
+      </c>
+      <c r="H88">
+        <v>59.5</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>13.9</v>
+      </c>
+      <c r="K88">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L88">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M88">
+        <v>12.243605</v>
+      </c>
+      <c r="N88">
+        <v>-8.293604999999999</v>
+      </c>
+      <c r="O88">
+        <v>-1.40991285</v>
+      </c>
+      <c r="P88">
+        <v>-6.88369215</v>
+      </c>
+      <c r="Q88">
+        <v>3.066307849999999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4060090012227775</v>
+      </c>
+      <c r="T88">
+        <v>8.404851720821558</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.05484495783717298</v>
+      </c>
+      <c r="W88">
+        <v>0.1736249812453113</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.3226173990421939</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2079027440421566</v>
+      </c>
+      <c r="C89">
+        <v>-28.14830640177623</v>
+      </c>
+      <c r="D89">
+        <v>16.07669359822377</v>
+      </c>
+      <c r="E89">
+        <v>49.425</v>
+      </c>
+      <c r="F89">
+        <v>67.425</v>
+      </c>
+      <c r="G89">
+        <v>23.2</v>
+      </c>
+      <c r="H89">
+        <v>59.5</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>13.9</v>
+      </c>
+      <c r="K89">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L89">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M89">
+        <v>12.3859725</v>
+      </c>
+      <c r="N89">
+        <v>-8.435972499999998</v>
+      </c>
+      <c r="O89">
+        <v>-1.434115325</v>
+      </c>
+      <c r="P89">
+        <v>-7.001857174999999</v>
+      </c>
+      <c r="Q89">
+        <v>2.948142825000001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4365250782399143</v>
+      </c>
+      <c r="T89">
+        <v>9.05137877626937</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.0542145560229526</v>
+      </c>
+      <c r="W89">
+        <v>0.1737407860585836</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.3189091530761917</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2096467440421566</v>
+      </c>
+      <c r="C90">
+        <v>-29.06325254250015</v>
+      </c>
+      <c r="D90">
+        <v>15.93674745749985</v>
+      </c>
+      <c r="E90">
+        <v>50.2</v>
+      </c>
+      <c r="F90">
+        <v>68.2</v>
+      </c>
+      <c r="G90">
+        <v>23.2</v>
+      </c>
+      <c r="H90">
+        <v>59.5</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>13.9</v>
+      </c>
+      <c r="K90">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L90">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M90">
+        <v>12.52834</v>
+      </c>
+      <c r="N90">
+        <v>-8.578339999999999</v>
+      </c>
+      <c r="O90">
+        <v>-1.4583178</v>
+      </c>
+      <c r="P90">
+        <v>-7.120022199999999</v>
+      </c>
+      <c r="Q90">
+        <v>2.8299778</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4721271680932404</v>
+      </c>
+      <c r="T90">
+        <v>9.805660340958484</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.05359848152269178</v>
+      </c>
+      <c r="W90">
+        <v>0.1738539589442815</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.3152851854275986</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2113907440421566</v>
+      </c>
+      <c r="C91">
+        <v>-29.97578327255714</v>
+      </c>
+      <c r="D91">
+        <v>15.79921672744285</v>
+      </c>
+      <c r="E91">
+        <v>50.97499999999999</v>
+      </c>
+      <c r="F91">
+        <v>68.97499999999999</v>
+      </c>
+      <c r="G91">
+        <v>23.2</v>
+      </c>
+      <c r="H91">
+        <v>59.5</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>13.9</v>
+      </c>
+      <c r="K91">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L91">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M91">
+        <v>12.6707075</v>
+      </c>
+      <c r="N91">
+        <v>-8.720707499999998</v>
+      </c>
+      <c r="O91">
+        <v>-1.482520275</v>
+      </c>
+      <c r="P91">
+        <v>-7.238187224999998</v>
+      </c>
+      <c r="Q91">
+        <v>2.711812775000001</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.514202365192626</v>
+      </c>
+      <c r="T91">
+        <v>10.69708400831835</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.05299625139322333</v>
+      </c>
+      <c r="W91">
+        <v>0.1739645886190649</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.3117426552542548</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2131347440421566</v>
+      </c>
+      <c r="C92">
+        <v>-30.88596059035024</v>
+      </c>
+      <c r="D92">
+        <v>15.66403940964976</v>
+      </c>
+      <c r="E92">
+        <v>51.75</v>
+      </c>
+      <c r="F92">
+        <v>69.75</v>
+      </c>
+      <c r="G92">
+        <v>23.2</v>
+      </c>
+      <c r="H92">
+        <v>59.5</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>13.9</v>
+      </c>
+      <c r="K92">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L92">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M92">
+        <v>12.813075</v>
+      </c>
+      <c r="N92">
+        <v>-8.863074999999998</v>
+      </c>
+      <c r="O92">
+        <v>-1.50672275</v>
+      </c>
+      <c r="P92">
+        <v>-7.356352249999999</v>
+      </c>
+      <c r="Q92">
+        <v>2.593647750000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5646926017118886</v>
+      </c>
+      <c r="T92">
+        <v>11.76679240915018</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.05240740415552084</v>
+      </c>
+      <c r="W92">
+        <v>0.1740727598566308</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.308278847973652</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2148787440421566</v>
+      </c>
+      <c r="C93">
+        <v>-31.79384439046154</v>
+      </c>
+      <c r="D93">
+        <v>15.53115560953847</v>
+      </c>
+      <c r="E93">
+        <v>52.52500000000001</v>
+      </c>
+      <c r="F93">
+        <v>70.52500000000001</v>
+      </c>
+      <c r="G93">
+        <v>23.2</v>
+      </c>
+      <c r="H93">
+        <v>59.5</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>13.9</v>
+      </c>
+      <c r="K93">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L93">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M93">
+        <v>12.9554425</v>
+      </c>
+      <c r="N93">
+        <v>-9.005442500000001</v>
+      </c>
+      <c r="O93">
+        <v>-1.530925225</v>
+      </c>
+      <c r="P93">
+        <v>-7.474517275</v>
+      </c>
+      <c r="Q93">
+        <v>2.475482724999999</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6264028907909873</v>
+      </c>
+      <c r="T93">
+        <v>13.07421378794465</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.05183149861535027</v>
+      </c>
+      <c r="W93">
+        <v>0.1741785537043601</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.3048911683255898</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2166227440421566</v>
+      </c>
+      <c r="C94">
+        <v>-32.69949255213899</v>
+      </c>
+      <c r="D94">
+        <v>15.400507447861</v>
+      </c>
+      <c r="E94">
+        <v>53.3</v>
+      </c>
+      <c r="F94">
+        <v>71.3</v>
+      </c>
+      <c r="G94">
+        <v>23.2</v>
+      </c>
+      <c r="H94">
+        <v>59.5</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>13.9</v>
+      </c>
+      <c r="K94">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L94">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M94">
+        <v>13.09781</v>
+      </c>
+      <c r="N94">
+        <v>-9.147809999999998</v>
+      </c>
+      <c r="O94">
+        <v>-1.5551277</v>
+      </c>
+      <c r="P94">
+        <v>-7.592682299999998</v>
+      </c>
+      <c r="Q94">
+        <v>2.357317700000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7035407521398609</v>
+      </c>
+      <c r="T94">
+        <v>14.70849051143773</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.05126811276083561</v>
+      </c>
+      <c r="W94">
+        <v>0.1742820476858345</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.3015771338872683</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2183667440421566</v>
+      </c>
+      <c r="C95">
+        <v>-33.60296102335437</v>
+      </c>
+      <c r="D95">
+        <v>15.27203897664564</v>
+      </c>
+      <c r="E95">
+        <v>54.075</v>
+      </c>
+      <c r="F95">
+        <v>72.075</v>
+      </c>
+      <c r="G95">
+        <v>23.2</v>
+      </c>
+      <c r="H95">
+        <v>59.5</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>13.9</v>
+      </c>
+      <c r="K95">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L95">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M95">
+        <v>13.2401775</v>
+      </c>
+      <c r="N95">
+        <v>-9.2901775</v>
+      </c>
+      <c r="O95">
+        <v>-1.579330175</v>
+      </c>
+      <c r="P95">
+        <v>-7.710847325</v>
+      </c>
+      <c r="Q95">
+        <v>2.239152674999999</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8027180024455555</v>
+      </c>
+      <c r="T95">
+        <v>16.80970344164313</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.0507168427311492</v>
+      </c>
+      <c r="W95">
+        <v>0.1743833159902879</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.2983343690067599</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2201107440421566</v>
+      </c>
+      <c r="C96">
+        <v>-34.50430390068867</v>
+      </c>
+      <c r="D96">
+        <v>15.14569609931134</v>
+      </c>
+      <c r="E96">
+        <v>54.85000000000001</v>
+      </c>
+      <c r="F96">
+        <v>72.85000000000001</v>
+      </c>
+      <c r="G96">
+        <v>23.2</v>
+      </c>
+      <c r="H96">
+        <v>59.5</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>13.9</v>
+      </c>
+      <c r="K96">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L96">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M96">
+        <v>13.382545</v>
+      </c>
+      <c r="N96">
+        <v>-9.432545000000001</v>
+      </c>
+      <c r="O96">
+        <v>-1.60353265</v>
+      </c>
+      <c r="P96">
+        <v>-7.829012350000001</v>
+      </c>
+      <c r="Q96">
+        <v>2.120987649999998</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9349543361864817</v>
+      </c>
+      <c r="T96">
+        <v>19.61132068191699</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.05017730185103058</v>
+      </c>
+      <c r="W96">
+        <v>0.1744824296499657</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.2951605991237093</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2218547440421566</v>
+      </c>
+      <c r="C97">
+        <v>-35.40357350528502</v>
+      </c>
+      <c r="D97">
+        <v>15.02142649471498</v>
+      </c>
+      <c r="E97">
+        <v>55.625</v>
+      </c>
+      <c r="F97">
+        <v>73.625</v>
+      </c>
+      <c r="G97">
+        <v>23.2</v>
+      </c>
+      <c r="H97">
+        <v>59.5</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>13.9</v>
+      </c>
+      <c r="K97">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L97">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M97">
+        <v>13.5249125</v>
+      </c>
+      <c r="N97">
+        <v>-9.5749125</v>
+      </c>
+      <c r="O97">
+        <v>-1.627735125</v>
+      </c>
+      <c r="P97">
+        <v>-7.947177375</v>
+      </c>
+      <c r="Q97">
+        <v>2.002822624999999</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.120085203423779</v>
+      </c>
+      <c r="T97">
+        <v>23.53358481830039</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.0496491197262829</v>
+      </c>
+      <c r="W97">
+        <v>0.1745794567062818</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.2920536454487229</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2235987440421566</v>
+      </c>
+      <c r="C98">
+        <v>-36.30082045509275</v>
+      </c>
+      <c r="D98">
+        <v>14.89917954490724</v>
+      </c>
+      <c r="E98">
+        <v>56.39999999999999</v>
+      </c>
+      <c r="F98">
+        <v>74.39999999999999</v>
+      </c>
+      <c r="G98">
+        <v>23.2</v>
+      </c>
+      <c r="H98">
+        <v>59.5</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>13.9</v>
+      </c>
+      <c r="K98">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L98">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M98">
+        <v>13.66728</v>
+      </c>
+      <c r="N98">
+        <v>-9.717279999999997</v>
+      </c>
+      <c r="O98">
+        <v>-1.6519376</v>
+      </c>
+      <c r="P98">
+        <v>-8.065342399999997</v>
+      </c>
+      <c r="Q98">
+        <v>1.884657600000002</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.39778150427972</v>
+      </c>
+      <c r="T98">
+        <v>29.41698102287543</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.04913194139580079</v>
+      </c>
+      <c r="W98">
+        <v>0.1746744623655914</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.2890114199752988</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2253427440421566</v>
+      </c>
+      <c r="C99">
+        <v>-37.19609373361234</v>
+      </c>
+      <c r="D99">
+        <v>14.77890626638766</v>
+      </c>
+      <c r="E99">
+        <v>57.175</v>
+      </c>
+      <c r="F99">
+        <v>75.175</v>
+      </c>
+      <c r="G99">
+        <v>23.2</v>
+      </c>
+      <c r="H99">
+        <v>59.5</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>13.9</v>
+      </c>
+      <c r="K99">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L99">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M99">
+        <v>13.8096475</v>
+      </c>
+      <c r="N99">
+        <v>-9.859647499999999</v>
+      </c>
+      <c r="O99">
+        <v>-1.676140075</v>
+      </c>
+      <c r="P99">
+        <v>-8.183507425</v>
+      </c>
+      <c r="Q99">
+        <v>1.766492574999999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.86060867237296</v>
+      </c>
+      <c r="T99">
+        <v>39.2226413638339</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.04862542653605027</v>
+      </c>
+      <c r="W99">
+        <v>0.1747675091453276</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.2860319208002956</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2270867440421566</v>
+      </c>
+      <c r="C100">
+        <v>-38.08944075533738</v>
+      </c>
+      <c r="D100">
+        <v>14.66055924466263</v>
+      </c>
+      <c r="E100">
+        <v>57.95</v>
+      </c>
+      <c r="F100">
+        <v>75.95</v>
+      </c>
+      <c r="G100">
+        <v>23.2</v>
+      </c>
+      <c r="H100">
+        <v>59.5</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>13.9</v>
+      </c>
+      <c r="K100">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L100">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M100">
+        <v>13.952015</v>
+      </c>
+      <c r="N100">
+        <v>-10.002015</v>
+      </c>
+      <c r="O100">
+        <v>-1.70034255</v>
+      </c>
+      <c r="P100">
+        <v>-8.30167245</v>
+      </c>
+      <c r="Q100">
+        <v>1.648327549999999</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.78626300855944</v>
+      </c>
+      <c r="T100">
+        <v>58.83396204575085</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.04812924871425383</v>
+      </c>
+      <c r="W100">
+        <v>0.1748586570111916</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.2831132277309049</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2288307440421566</v>
+      </c>
+      <c r="C101">
+        <v>-38.98090742807721</v>
+      </c>
+      <c r="D101">
+        <v>14.54409257192279</v>
+      </c>
+      <c r="E101">
+        <v>58.72499999999999</v>
+      </c>
+      <c r="F101">
+        <v>76.72499999999999</v>
+      </c>
+      <c r="G101">
+        <v>23.2</v>
+      </c>
+      <c r="H101">
+        <v>59.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>13.9</v>
+      </c>
+      <c r="K101">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="L101">
+        <v>3.950000000000001</v>
+      </c>
+      <c r="M101">
+        <v>14.0943825</v>
+      </c>
+      <c r="N101">
+        <v>-10.1443825</v>
+      </c>
+      <c r="O101">
+        <v>-1.724545025</v>
+      </c>
+      <c r="P101">
+        <v>-8.419837474999998</v>
+      </c>
+      <c r="Q101">
+        <v>1.530162525000001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.56322601711888</v>
+      </c>
+      <c r="T101">
+        <v>117.6679240915017</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.04764309468683714</v>
+      </c>
+      <c r="W101">
+        <v>0.174947963506028</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.2802534981578655</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
